--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_18_12.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_18_12.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>17676.97809306615</v>
+        <v>38587.82618822616</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23491578.3400044</v>
+        <v>23306769.89929883</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3136974.260026022</v>
+        <v>3199423.860505141</v>
       </c>
     </row>
     <row r="11">
@@ -4001,7 +4003,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>16.71817287654906</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -4019,13 +4021,13 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>34.06410114010716</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>37.74379108824891</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>37.74379108824891</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4053,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>37.74379108824891</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4062,7 +4064,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>37.74379108824891</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4077,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>37.74379108824891</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4098,7 +4100,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>30.24207412879721</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -4122,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>3.002657061732428</v>
       </c>
     </row>
     <row r="46">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>19.90654659670543</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>19.90654659670543</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>19.90654659670543</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>19.90654659670543</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>19.90654659670543</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>19.90654659670543</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>19.90654659670543</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>19.90654659670543</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>19.90654659670543</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>3.019503287059913</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>18.46575304097486</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>55.83210621834128</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>93.1984593957077</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>130.5648125730741</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>130.5648125730741</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>96.1566296032689</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>58.03158809998716</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>19.90654659670543</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>19.90654659670543</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>19.90654659670543</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>19.90654659670543</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>19.90654659670543</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>19.90654659670543</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>19.90654659670543</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>79.26958629362338</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>79.26958629362338</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>79.26958629362338</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>41.14454479034164</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>41.14454479034164</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>41.14454479034164</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>41.14454479034164</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>41.14454479034164</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>3.019503287059913</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>3.019503287059913</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>40.38585646442633</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>77.75220964179275</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>85.58741222772228</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>122.9537654050887</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>150.9751643529956</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>120.427614727948</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>120.427614727948</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>120.427614727948</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>120.427614727948</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>120.427614727948</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>120.427614727948</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>120.427614727948</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>120.427614727948</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>117.3946277969051</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>3.019503287059913</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>3.019503287059913</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>3.019503287059913</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>3.019503287059913</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>3.019503287059913</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>3.019503287059913</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>3.019503287059913</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>3.019503287059913</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>3.019503287059913</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>3.019503287059913</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>3.019503287059913</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>3.019503287059913</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>3.019503287059913</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>3.019503287059913</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>3.019503287059913</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>3.019503287059913</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>3.019503287059913</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>3.019503287059913</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>3.019503287059913</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>3.019503287059913</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>3.019503287059913</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>3.019503287059913</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>3.019503287059913</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>3.019503287059913</v>
       </c>
     </row>
   </sheetData>
@@ -22559,49 +22561,49 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G2" t="n">
-        <v>413.6919290911495</v>
+        <v>413.7626217824606</v>
       </c>
       <c r="H2" t="n">
-        <v>326.2350060009042</v>
+        <v>326.9589875257946</v>
       </c>
       <c r="I2" t="n">
-        <v>160.3940609234714</v>
+        <v>163.1194409052448</v>
       </c>
       <c r="J2" t="n">
-        <v>77.82547842006969</v>
+        <v>83.82543222923999</v>
       </c>
       <c r="K2" t="n">
-        <v>66.67046515959973</v>
+        <v>75.6628405919713</v>
       </c>
       <c r="L2" t="n">
-        <v>46.36796318225549</v>
+        <v>57.5238000663409</v>
       </c>
       <c r="M2" t="n">
-        <v>20.40369570745969</v>
+        <v>32.81671374064987</v>
       </c>
       <c r="N2" t="n">
-        <v>16.18994664413867</v>
+        <v>28.80382028651667</v>
       </c>
       <c r="O2" t="n">
-        <v>28.4209193578335</v>
+        <v>40.33184255098618</v>
       </c>
       <c r="P2" t="n">
-        <v>58.23485555240069</v>
+        <v>68.40055292880919</v>
       </c>
       <c r="Q2" t="n">
-        <v>91.1748077665065</v>
+        <v>98.80882313533421</v>
       </c>
       <c r="R2" t="n">
-        <v>137.150882842301</v>
+        <v>141.5915326128755</v>
       </c>
       <c r="S2" t="n">
-        <v>179.3668192483101</v>
+        <v>180.9777289515631</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8748012376572</v>
+        <v>218.1842584938718</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3847366715299</v>
+        <v>251.3903920868348</v>
       </c>
       <c r="V2" t="n">
         <v>328.5332215225193</v>
@@ -22638,22 +22640,22 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G3" t="n">
-        <v>135.4010379269883</v>
+        <v>135.4388618514006</v>
       </c>
       <c r="H3" t="n">
-        <v>104.4536411525054</v>
+        <v>104.8189406330145</v>
       </c>
       <c r="I3" t="n">
-        <v>75.61303811963009</v>
+        <v>76.91530920137211</v>
       </c>
       <c r="J3" t="n">
-        <v>64.88504985279644</v>
+        <v>68.45858123773975</v>
       </c>
       <c r="K3" t="n">
-        <v>33.92822422317468</v>
+        <v>40.03595854374745</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>8.212602535240634</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -22665,22 +22667,22 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>11.81743037845671</v>
+        <v>19.04014099716809</v>
       </c>
       <c r="Q3" t="n">
-        <v>57.06248420542693</v>
+        <v>61.89067497778616</v>
       </c>
       <c r="R3" t="n">
-        <v>103.4082586098946</v>
+        <v>105.7566598115685</v>
       </c>
       <c r="S3" t="n">
-        <v>157.4050367233684</v>
+        <v>158.1075995298878</v>
       </c>
       <c r="T3" t="n">
-        <v>195.8747410155859</v>
+        <v>196.0271979740726</v>
       </c>
       <c r="U3" t="n">
-        <v>224.6162446804871</v>
+        <v>224.6187330965669</v>
       </c>
       <c r="V3" t="n">
         <v>231.9087310396551</v>
@@ -22717,49 +22719,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3679805923089</v>
+        <v>167.3996908999483</v>
       </c>
       <c r="H4" t="n">
-        <v>156.9964996964846</v>
+        <v>157.278433158951</v>
       </c>
       <c r="I4" t="n">
-        <v>138.0723615115898</v>
+        <v>139.0259769449628</v>
       </c>
       <c r="J4" t="n">
-        <v>86.94282642101277</v>
+        <v>89.18474517111618</v>
       </c>
       <c r="K4" t="n">
-        <v>65.18652165197315</v>
+        <v>68.87068284861988</v>
       </c>
       <c r="L4" t="n">
-        <v>53.96362522541675</v>
+        <v>58.678083144819</v>
       </c>
       <c r="M4" t="n">
-        <v>53.68816145191141</v>
+        <v>58.65889631214456</v>
       </c>
       <c r="N4" t="n">
-        <v>44.67310448839555</v>
+        <v>49.52564638379106</v>
       </c>
       <c r="O4" t="n">
-        <v>61.26815738962976</v>
+        <v>65.75026523669263</v>
       </c>
       <c r="P4" t="n">
-        <v>71.19864643810423</v>
+        <v>75.03386400932396</v>
       </c>
       <c r="Q4" t="n">
-        <v>104.0397911390026</v>
+        <v>106.6950969905138</v>
       </c>
       <c r="R4" t="n">
-        <v>149.9377400447414</v>
+        <v>151.3635507864171</v>
       </c>
       <c r="S4" t="n">
-        <v>213.2671962017777</v>
+        <v>213.8198203812747</v>
       </c>
       <c r="T4" t="n">
-        <v>226.1037758209114</v>
+        <v>226.2392653171887</v>
       </c>
       <c r="U4" t="n">
-        <v>286.0238190271842</v>
+        <v>286.0255486803282</v>
       </c>
       <c r="V4" t="n">
         <v>252.9363510669392</v>
@@ -22796,49 +22798,49 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G5" t="n">
-        <v>413.6011947986627</v>
+        <v>413.6919290911495</v>
       </c>
       <c r="H5" t="n">
-        <v>325.3057734279745</v>
+        <v>326.2350060009042</v>
       </c>
       <c r="I5" t="n">
-        <v>156.8960271123767</v>
+        <v>160.3940609234714</v>
       </c>
       <c r="J5" t="n">
-        <v>70.12451876312399</v>
+        <v>77.82547842006969</v>
       </c>
       <c r="K5" t="n">
-        <v>55.12872290169068</v>
+        <v>66.67046515959973</v>
       </c>
       <c r="L5" t="n">
-        <v>32.04941132065568</v>
+        <v>46.36796318225549</v>
       </c>
       <c r="M5" t="n">
-        <v>4.471547871848941</v>
+        <v>20.40369570745969</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>16.18994664413867</v>
       </c>
       <c r="O5" t="n">
-        <v>13.13321183460977</v>
+        <v>28.4209193578335</v>
       </c>
       <c r="P5" t="n">
-        <v>45.18715087494314</v>
+        <v>58.23485555240069</v>
       </c>
       <c r="Q5" t="n">
-        <v>81.37652493873003</v>
+        <v>91.1748077665065</v>
       </c>
       <c r="R5" t="n">
-        <v>131.4512948418814</v>
+        <v>137.150882842301</v>
       </c>
       <c r="S5" t="n">
-        <v>177.2992115582687</v>
+        <v>179.3668192483101</v>
       </c>
       <c r="T5" t="n">
-        <v>217.4776118722965</v>
+        <v>217.8748012376572</v>
       </c>
       <c r="U5" t="n">
-        <v>251.377477928131</v>
+        <v>251.3847366715299</v>
       </c>
       <c r="V5" t="n">
         <v>328.5332215225193</v>
@@ -22875,19 +22877,19 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G6" t="n">
-        <v>135.3524908005884</v>
+        <v>135.4010379269883</v>
       </c>
       <c r="H6" t="n">
-        <v>103.9847781159594</v>
+        <v>104.4536411525054</v>
       </c>
       <c r="I6" t="n">
-        <v>73.94156907472269</v>
+        <v>75.61303811963009</v>
       </c>
       <c r="J6" t="n">
-        <v>60.29841103797475</v>
+        <v>64.88504985279644</v>
       </c>
       <c r="K6" t="n">
-        <v>26.08892793956251</v>
+        <v>33.92822422317468</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -22902,22 +22904,22 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>2.547058496013619</v>
+        <v>11.81743037845671</v>
       </c>
       <c r="Q6" t="n">
-        <v>50.86548610568364</v>
+        <v>57.06248420542693</v>
       </c>
       <c r="R6" t="n">
-        <v>100.3940782532438</v>
+        <v>103.4082586098946</v>
       </c>
       <c r="S6" t="n">
-        <v>156.5032951430903</v>
+        <v>157.4050367233684</v>
       </c>
       <c r="T6" t="n">
-        <v>195.6790620280356</v>
+        <v>195.8747410155859</v>
       </c>
       <c r="U6" t="n">
-        <v>224.6130507905924</v>
+        <v>224.6162446804871</v>
       </c>
       <c r="V6" t="n">
         <v>231.9087310396551</v>
@@ -22954,49 +22956,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G7" t="n">
-        <v>167.327280312339</v>
+        <v>167.3679805923089</v>
       </c>
       <c r="H7" t="n">
-        <v>156.634637207297</v>
+        <v>156.9964996964846</v>
       </c>
       <c r="I7" t="n">
-        <v>136.8483930921292</v>
+        <v>138.0723615115898</v>
       </c>
       <c r="J7" t="n">
-        <v>84.06531662713587</v>
+        <v>86.94282642101277</v>
       </c>
       <c r="K7" t="n">
-        <v>60.45788912455299</v>
+        <v>65.18652165197315</v>
       </c>
       <c r="L7" t="n">
-        <v>47.91260360151773</v>
+        <v>53.96362522541675</v>
       </c>
       <c r="M7" t="n">
-        <v>47.308207565346</v>
+        <v>53.68816145191141</v>
       </c>
       <c r="N7" t="n">
-        <v>38.44485164535457</v>
+        <v>44.67310448839555</v>
       </c>
       <c r="O7" t="n">
-        <v>55.51535781714706</v>
+        <v>61.26815738962976</v>
       </c>
       <c r="P7" t="n">
-        <v>66.27613257700894</v>
+        <v>71.19864643810423</v>
       </c>
       <c r="Q7" t="n">
-        <v>100.6316976953354</v>
+        <v>104.0397911390026</v>
       </c>
       <c r="R7" t="n">
-        <v>148.1077074562735</v>
+        <v>149.9377400447414</v>
       </c>
       <c r="S7" t="n">
-        <v>212.5579013226647</v>
+        <v>213.2671962017777</v>
       </c>
       <c r="T7" t="n">
-        <v>225.929874624676</v>
+        <v>226.1037758209114</v>
       </c>
       <c r="U7" t="n">
-        <v>286.0215990119132</v>
+        <v>286.0238190271842</v>
       </c>
       <c r="V7" t="n">
         <v>252.9363510669392</v>
@@ -23270,22 +23272,22 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G11" t="n">
-        <v>413.5757291341046</v>
+        <v>413.5232476844809</v>
       </c>
       <c r="H11" t="n">
-        <v>325.0449731908182</v>
+        <v>324.5074975448595</v>
       </c>
       <c r="I11" t="n">
-        <v>155.914262079498</v>
+        <v>153.8909709928803</v>
       </c>
       <c r="J11" t="n">
-        <v>67.9631523158304</v>
+        <v>63.5088548808309</v>
       </c>
       <c r="K11" t="n">
-        <v>51.88939487364996</v>
+        <v>45.21355767607923</v>
       </c>
       <c r="L11" t="n">
-        <v>28.03073846089299</v>
+        <v>19.74877209940095</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -23294,25 +23296,25 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>8.842533845285203</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>41.52515647939825</v>
+        <v>33.97825842169817</v>
       </c>
       <c r="Q11" t="n">
-        <v>78.62651965517443</v>
+        <v>72.95911351212311</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8516372905796</v>
+        <v>126.5549494306548</v>
       </c>
       <c r="S11" t="n">
-        <v>176.7189127271495</v>
+        <v>175.5229916938495</v>
       </c>
       <c r="T11" t="n">
-        <v>217.3661359256932</v>
+        <v>217.1363983799654</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3754406749663</v>
+        <v>251.3712421589964</v>
       </c>
       <c r="V11" t="n">
         <v>328.5332215225193</v>
@@ -23349,19 +23351,19 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G12" t="n">
-        <v>135.3388654688392</v>
+        <v>135.3107854177504</v>
       </c>
       <c r="H12" t="n">
-        <v>103.853186096171</v>
+        <v>103.5819919185507</v>
       </c>
       <c r="I12" t="n">
-        <v>73.47245129300644</v>
+        <v>72.50566006034532</v>
       </c>
       <c r="J12" t="n">
-        <v>59.01111598880918</v>
+        <v>56.35816695151578</v>
       </c>
       <c r="K12" t="n">
-        <v>23.88873566319981</v>
+        <v>19.35442320295977</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -23379,19 +23381,19 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>49.12622445994228</v>
+        <v>45.54183057008632</v>
       </c>
       <c r="R12" t="n">
-        <v>99.54811248025331</v>
+        <v>97.80468615037421</v>
       </c>
       <c r="S12" t="n">
-        <v>156.2502105818714</v>
+        <v>155.7286359487097</v>
       </c>
       <c r="T12" t="n">
-        <v>195.6241423794499</v>
+        <v>195.5109600682632</v>
       </c>
       <c r="U12" t="n">
-        <v>224.6121543871878</v>
+        <v>224.6103070154057</v>
       </c>
       <c r="V12" t="n">
         <v>231.9087310396551</v>
@@ -23428,49 +23430,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G13" t="n">
-        <v>167.315857291905</v>
+        <v>167.2923159203422</v>
       </c>
       <c r="H13" t="n">
-        <v>156.5330761710749</v>
+        <v>156.3237719766351</v>
       </c>
       <c r="I13" t="n">
-        <v>136.5048717139874</v>
+        <v>135.7969184673545</v>
       </c>
       <c r="J13" t="n">
-        <v>83.25770908245346</v>
+        <v>81.59333411296618</v>
       </c>
       <c r="K13" t="n">
-        <v>59.1307418414051</v>
+        <v>56.39566249074964</v>
       </c>
       <c r="L13" t="n">
-        <v>46.21431199990579</v>
+        <v>42.71435208592931</v>
       </c>
       <c r="M13" t="n">
-        <v>45.51759718949943</v>
+        <v>41.82738019080209</v>
       </c>
       <c r="N13" t="n">
-        <v>36.69681798203466</v>
+        <v>33.09434609552579</v>
       </c>
       <c r="O13" t="n">
-        <v>53.9007658016241</v>
+        <v>50.57329993746204</v>
       </c>
       <c r="P13" t="n">
-        <v>64.89457017833917</v>
+        <v>62.04734829405747</v>
       </c>
       <c r="Q13" t="n">
-        <v>99.67517550244999</v>
+        <v>97.70390665277179</v>
       </c>
       <c r="R13" t="n">
-        <v>147.5940869193057</v>
+        <v>146.5355812488564</v>
       </c>
       <c r="S13" t="n">
-        <v>212.3588292301925</v>
+        <v>211.9485673275942</v>
       </c>
       <c r="T13" t="n">
-        <v>225.8810671737309</v>
+        <v>225.7804813134173</v>
       </c>
       <c r="U13" t="n">
-        <v>286.0209759380713</v>
+        <v>286.0196918632588</v>
       </c>
       <c r="V13" t="n">
         <v>252.9363510669392</v>
@@ -23507,22 +23509,22 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G14" t="n">
-        <v>413.5757291341046</v>
+        <v>413.5232476844809</v>
       </c>
       <c r="H14" t="n">
-        <v>325.0449731908182</v>
+        <v>324.5074975448595</v>
       </c>
       <c r="I14" t="n">
-        <v>155.914262079498</v>
+        <v>153.8909709928803</v>
       </c>
       <c r="J14" t="n">
-        <v>67.9631523158304</v>
+        <v>63.5088548808309</v>
       </c>
       <c r="K14" t="n">
-        <v>51.88939487364996</v>
+        <v>45.21355767607923</v>
       </c>
       <c r="L14" t="n">
-        <v>28.03073846089299</v>
+        <v>19.74877209940095</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -23531,25 +23533,25 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>8.842533845285203</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>41.52515647939825</v>
+        <v>33.97825842169817</v>
       </c>
       <c r="Q14" t="n">
-        <v>78.62651965517443</v>
+        <v>72.95911351212311</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8516372905796</v>
+        <v>126.5549494306548</v>
       </c>
       <c r="S14" t="n">
-        <v>176.7189127271495</v>
+        <v>175.5229916938495</v>
       </c>
       <c r="T14" t="n">
-        <v>217.3661359256932</v>
+        <v>217.1363983799654</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3754406749663</v>
+        <v>251.3712421589964</v>
       </c>
       <c r="V14" t="n">
         <v>328.5332215225193</v>
@@ -23586,19 +23588,19 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G15" t="n">
-        <v>135.3388654688392</v>
+        <v>135.3107854177504</v>
       </c>
       <c r="H15" t="n">
-        <v>103.853186096171</v>
+        <v>103.5819919185507</v>
       </c>
       <c r="I15" t="n">
-        <v>73.47245129300644</v>
+        <v>72.50566006034532</v>
       </c>
       <c r="J15" t="n">
-        <v>59.01111598880918</v>
+        <v>56.35816695151578</v>
       </c>
       <c r="K15" t="n">
-        <v>23.88873566319981</v>
+        <v>19.35442320295975</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -23616,19 +23618,19 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>49.12622445994228</v>
+        <v>45.54183057008632</v>
       </c>
       <c r="R15" t="n">
-        <v>99.54811248025331</v>
+        <v>97.80468615037421</v>
       </c>
       <c r="S15" t="n">
-        <v>156.2502105818714</v>
+        <v>155.7286359487097</v>
       </c>
       <c r="T15" t="n">
-        <v>195.6241423794499</v>
+        <v>195.5109600682632</v>
       </c>
       <c r="U15" t="n">
-        <v>224.6121543871878</v>
+        <v>224.6103070154057</v>
       </c>
       <c r="V15" t="n">
         <v>231.9087310396551</v>
@@ -23665,49 +23667,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G16" t="n">
-        <v>167.315857291905</v>
+        <v>167.2923159203422</v>
       </c>
       <c r="H16" t="n">
-        <v>156.5330761710749</v>
+        <v>156.3237719766351</v>
       </c>
       <c r="I16" t="n">
-        <v>136.5048717139874</v>
+        <v>135.7969184673545</v>
       </c>
       <c r="J16" t="n">
-        <v>83.25770908245346</v>
+        <v>81.59333411296618</v>
       </c>
       <c r="K16" t="n">
-        <v>59.1307418414051</v>
+        <v>56.39566249074963</v>
       </c>
       <c r="L16" t="n">
-        <v>46.21431199990579</v>
+        <v>42.71435208592931</v>
       </c>
       <c r="M16" t="n">
-        <v>45.51759718949943</v>
+        <v>41.82738019080209</v>
       </c>
       <c r="N16" t="n">
-        <v>36.69681798203466</v>
+        <v>33.09434609552578</v>
       </c>
       <c r="O16" t="n">
-        <v>53.9007658016241</v>
+        <v>50.57329993746204</v>
       </c>
       <c r="P16" t="n">
-        <v>64.89457017833917</v>
+        <v>62.04734829405747</v>
       </c>
       <c r="Q16" t="n">
-        <v>99.67517550244999</v>
+        <v>97.70390665277179</v>
       </c>
       <c r="R16" t="n">
-        <v>147.5940869193057</v>
+        <v>146.5355812488564</v>
       </c>
       <c r="S16" t="n">
-        <v>212.3588292301925</v>
+        <v>211.9485673275942</v>
       </c>
       <c r="T16" t="n">
-        <v>225.8810671737309</v>
+        <v>225.7804813134173</v>
       </c>
       <c r="U16" t="n">
-        <v>286.0209759380713</v>
+        <v>286.0196918632588</v>
       </c>
       <c r="V16" t="n">
         <v>252.9363510669392</v>
@@ -23744,22 +23746,22 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G17" t="n">
-        <v>413.5757291341046</v>
+        <v>413.5232476844809</v>
       </c>
       <c r="H17" t="n">
-        <v>325.0449731908182</v>
+        <v>324.5074975448595</v>
       </c>
       <c r="I17" t="n">
-        <v>155.914262079498</v>
+        <v>153.8909709928803</v>
       </c>
       <c r="J17" t="n">
-        <v>67.9631523158304</v>
+        <v>63.5088548808309</v>
       </c>
       <c r="K17" t="n">
-        <v>51.88939487364996</v>
+        <v>45.21355767607923</v>
       </c>
       <c r="L17" t="n">
-        <v>28.03073846089299</v>
+        <v>19.74877209940095</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -23768,25 +23770,25 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>8.842533845285203</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>41.52515647939825</v>
+        <v>33.97825842169817</v>
       </c>
       <c r="Q17" t="n">
-        <v>78.62651965517443</v>
+        <v>72.95911351212311</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8516372905796</v>
+        <v>126.5549494306548</v>
       </c>
       <c r="S17" t="n">
-        <v>176.7189127271495</v>
+        <v>175.5229916938495</v>
       </c>
       <c r="T17" t="n">
-        <v>217.3661359256932</v>
+        <v>217.1363983799654</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3754406749663</v>
+        <v>251.3712421589964</v>
       </c>
       <c r="V17" t="n">
         <v>328.5332215225193</v>
@@ -23823,19 +23825,19 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G18" t="n">
-        <v>135.3388654688392</v>
+        <v>135.3107854177504</v>
       </c>
       <c r="H18" t="n">
-        <v>103.853186096171</v>
+        <v>103.5819919185507</v>
       </c>
       <c r="I18" t="n">
-        <v>73.47245129300644</v>
+        <v>72.50566006034532</v>
       </c>
       <c r="J18" t="n">
-        <v>59.01111598880918</v>
+        <v>56.35816695151578</v>
       </c>
       <c r="K18" t="n">
-        <v>23.88873566319981</v>
+        <v>19.35442320295977</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -23853,19 +23855,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>49.12622445994228</v>
+        <v>45.54183057008632</v>
       </c>
       <c r="R18" t="n">
-        <v>99.54811248025331</v>
+        <v>97.80468615037421</v>
       </c>
       <c r="S18" t="n">
-        <v>156.2502105818714</v>
+        <v>155.7286359487097</v>
       </c>
       <c r="T18" t="n">
-        <v>195.6241423794499</v>
+        <v>195.5109600682632</v>
       </c>
       <c r="U18" t="n">
-        <v>224.6121543871878</v>
+        <v>224.6103070154057</v>
       </c>
       <c r="V18" t="n">
         <v>231.9087310396551</v>
@@ -23902,49 +23904,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G19" t="n">
-        <v>167.315857291905</v>
+        <v>167.2923159203422</v>
       </c>
       <c r="H19" t="n">
-        <v>156.5330761710749</v>
+        <v>156.3237719766351</v>
       </c>
       <c r="I19" t="n">
-        <v>136.5048717139874</v>
+        <v>135.7969184673545</v>
       </c>
       <c r="J19" t="n">
-        <v>83.25770908245346</v>
+        <v>81.59333411296618</v>
       </c>
       <c r="K19" t="n">
-        <v>59.1307418414051</v>
+        <v>56.39566249074964</v>
       </c>
       <c r="L19" t="n">
-        <v>46.21431199990579</v>
+        <v>42.71435208592931</v>
       </c>
       <c r="M19" t="n">
-        <v>45.51759718949943</v>
+        <v>41.82738019080209</v>
       </c>
       <c r="N19" t="n">
-        <v>36.69681798203466</v>
+        <v>33.09434609552579</v>
       </c>
       <c r="O19" t="n">
-        <v>53.9007658016241</v>
+        <v>50.57329993746204</v>
       </c>
       <c r="P19" t="n">
-        <v>64.89457017833917</v>
+        <v>62.04734829405747</v>
       </c>
       <c r="Q19" t="n">
-        <v>99.67517550244999</v>
+        <v>97.70390665277179</v>
       </c>
       <c r="R19" t="n">
-        <v>147.5940869193057</v>
+        <v>146.5355812488564</v>
       </c>
       <c r="S19" t="n">
-        <v>212.3588292301925</v>
+        <v>211.9485673275942</v>
       </c>
       <c r="T19" t="n">
-        <v>225.8810671737309</v>
+        <v>225.7804813134173</v>
       </c>
       <c r="U19" t="n">
-        <v>286.0209759380713</v>
+        <v>286.0196918632588</v>
       </c>
       <c r="V19" t="n">
         <v>252.9363510669392</v>
@@ -23981,22 +23983,22 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G20" t="n">
-        <v>413.5757291341046</v>
+        <v>413.5232476844809</v>
       </c>
       <c r="H20" t="n">
-        <v>325.0449731908182</v>
+        <v>324.5074975448595</v>
       </c>
       <c r="I20" t="n">
-        <v>155.914262079498</v>
+        <v>153.8909709928803</v>
       </c>
       <c r="J20" t="n">
-        <v>67.9631523158304</v>
+        <v>63.5088548808309</v>
       </c>
       <c r="K20" t="n">
-        <v>51.88939487364996</v>
+        <v>45.21355767607923</v>
       </c>
       <c r="L20" t="n">
-        <v>28.03073846089299</v>
+        <v>19.74877209940095</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -24005,25 +24007,25 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>8.842533845285203</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>41.52515647939825</v>
+        <v>33.97825842169817</v>
       </c>
       <c r="Q20" t="n">
-        <v>78.62651965517443</v>
+        <v>72.95911351212311</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8516372905796</v>
+        <v>126.5549494306548</v>
       </c>
       <c r="S20" t="n">
-        <v>176.7189127271495</v>
+        <v>175.5229916938495</v>
       </c>
       <c r="T20" t="n">
-        <v>217.3661359256932</v>
+        <v>217.1363983799654</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3754406749663</v>
+        <v>251.3712421589964</v>
       </c>
       <c r="V20" t="n">
         <v>328.5332215225193</v>
@@ -24060,19 +24062,19 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G21" t="n">
-        <v>135.3388654688392</v>
+        <v>135.3107854177504</v>
       </c>
       <c r="H21" t="n">
-        <v>103.853186096171</v>
+        <v>103.5819919185507</v>
       </c>
       <c r="I21" t="n">
-        <v>73.47245129300644</v>
+        <v>72.50566006034532</v>
       </c>
       <c r="J21" t="n">
-        <v>59.01111598880918</v>
+        <v>56.35816695151578</v>
       </c>
       <c r="K21" t="n">
-        <v>23.88873566319981</v>
+        <v>19.35442320295977</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -24090,19 +24092,19 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>49.12622445994228</v>
+        <v>45.54183057008632</v>
       </c>
       <c r="R21" t="n">
-        <v>99.54811248025331</v>
+        <v>97.80468615037421</v>
       </c>
       <c r="S21" t="n">
-        <v>156.2502105818714</v>
+        <v>155.7286359487097</v>
       </c>
       <c r="T21" t="n">
-        <v>195.6241423794499</v>
+        <v>195.5109600682632</v>
       </c>
       <c r="U21" t="n">
-        <v>224.6121543871878</v>
+        <v>224.6103070154057</v>
       </c>
       <c r="V21" t="n">
         <v>231.9087310396551</v>
@@ -24139,49 +24141,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G22" t="n">
-        <v>167.315857291905</v>
+        <v>167.2923159203422</v>
       </c>
       <c r="H22" t="n">
-        <v>156.5330761710749</v>
+        <v>156.3237719766351</v>
       </c>
       <c r="I22" t="n">
-        <v>136.5048717139874</v>
+        <v>135.7969184673545</v>
       </c>
       <c r="J22" t="n">
-        <v>83.25770908245346</v>
+        <v>81.59333411296618</v>
       </c>
       <c r="K22" t="n">
-        <v>59.1307418414051</v>
+        <v>56.39566249074964</v>
       </c>
       <c r="L22" t="n">
-        <v>46.21431199990579</v>
+        <v>42.71435208592931</v>
       </c>
       <c r="M22" t="n">
-        <v>45.51759718949943</v>
+        <v>41.82738019080209</v>
       </c>
       <c r="N22" t="n">
-        <v>36.69681798203466</v>
+        <v>33.09434609552579</v>
       </c>
       <c r="O22" t="n">
-        <v>53.9007658016241</v>
+        <v>50.57329993746204</v>
       </c>
       <c r="P22" t="n">
-        <v>64.89457017833917</v>
+        <v>62.04734829405747</v>
       </c>
       <c r="Q22" t="n">
-        <v>99.67517550244999</v>
+        <v>97.70390665277179</v>
       </c>
       <c r="R22" t="n">
-        <v>147.5940869193057</v>
+        <v>146.5355812488564</v>
       </c>
       <c r="S22" t="n">
-        <v>212.3588292301925</v>
+        <v>211.9485673275942</v>
       </c>
       <c r="T22" t="n">
-        <v>225.8810671737309</v>
+        <v>225.7804813134173</v>
       </c>
       <c r="U22" t="n">
-        <v>286.0209759380713</v>
+        <v>286.0196918632588</v>
       </c>
       <c r="V22" t="n">
         <v>252.9363510669392</v>
@@ -24218,22 +24220,22 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G23" t="n">
-        <v>413.5757291341046</v>
+        <v>413.5232476844809</v>
       </c>
       <c r="H23" t="n">
-        <v>325.0449731908182</v>
+        <v>324.5074975448595</v>
       </c>
       <c r="I23" t="n">
-        <v>155.914262079498</v>
+        <v>153.8909709928803</v>
       </c>
       <c r="J23" t="n">
-        <v>67.9631523158304</v>
+        <v>63.5088548808309</v>
       </c>
       <c r="K23" t="n">
-        <v>51.88939487364996</v>
+        <v>45.21355767607923</v>
       </c>
       <c r="L23" t="n">
-        <v>28.03073846089299</v>
+        <v>19.74877209940095</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -24242,25 +24244,25 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>8.842533845285203</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>41.52515647939825</v>
+        <v>33.97825842169817</v>
       </c>
       <c r="Q23" t="n">
-        <v>78.62651965517443</v>
+        <v>72.95911351212311</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8516372905796</v>
+        <v>126.5549494306548</v>
       </c>
       <c r="S23" t="n">
-        <v>176.7189127271495</v>
+        <v>175.5229916938495</v>
       </c>
       <c r="T23" t="n">
-        <v>217.3661359256932</v>
+        <v>217.1363983799654</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3754406749663</v>
+        <v>251.3712421589964</v>
       </c>
       <c r="V23" t="n">
         <v>328.5332215225193</v>
@@ -24297,19 +24299,19 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G24" t="n">
-        <v>135.3388654688392</v>
+        <v>135.3107854177504</v>
       </c>
       <c r="H24" t="n">
-        <v>103.853186096171</v>
+        <v>103.5819919185507</v>
       </c>
       <c r="I24" t="n">
-        <v>73.47245129300644</v>
+        <v>72.50566006034532</v>
       </c>
       <c r="J24" t="n">
-        <v>59.01111598880918</v>
+        <v>56.35816695151578</v>
       </c>
       <c r="K24" t="n">
-        <v>23.88873566319981</v>
+        <v>19.35442320295977</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -24327,19 +24329,19 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>49.12622445994228</v>
+        <v>45.54183057008632</v>
       </c>
       <c r="R24" t="n">
-        <v>99.54811248025331</v>
+        <v>97.80468615037421</v>
       </c>
       <c r="S24" t="n">
-        <v>156.2502105818714</v>
+        <v>155.7286359487097</v>
       </c>
       <c r="T24" t="n">
-        <v>195.6241423794499</v>
+        <v>195.5109600682632</v>
       </c>
       <c r="U24" t="n">
-        <v>224.6121543871878</v>
+        <v>224.6103070154057</v>
       </c>
       <c r="V24" t="n">
         <v>231.9087310396551</v>
@@ -24376,49 +24378,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G25" t="n">
-        <v>167.315857291905</v>
+        <v>167.2923159203422</v>
       </c>
       <c r="H25" t="n">
-        <v>156.5330761710749</v>
+        <v>156.3237719766351</v>
       </c>
       <c r="I25" t="n">
-        <v>136.5048717139874</v>
+        <v>135.7969184673545</v>
       </c>
       <c r="J25" t="n">
-        <v>83.25770908245346</v>
+        <v>81.59333411296618</v>
       </c>
       <c r="K25" t="n">
-        <v>59.1307418414051</v>
+        <v>56.39566249074964</v>
       </c>
       <c r="L25" t="n">
-        <v>46.21431199990579</v>
+        <v>42.71435208592931</v>
       </c>
       <c r="M25" t="n">
-        <v>45.51759718949943</v>
+        <v>41.82738019080209</v>
       </c>
       <c r="N25" t="n">
-        <v>36.69681798203466</v>
+        <v>33.09434609552579</v>
       </c>
       <c r="O25" t="n">
-        <v>53.9007658016241</v>
+        <v>50.57329993746204</v>
       </c>
       <c r="P25" t="n">
-        <v>64.89457017833917</v>
+        <v>62.04734829405747</v>
       </c>
       <c r="Q25" t="n">
-        <v>99.67517550244999</v>
+        <v>97.70390665277179</v>
       </c>
       <c r="R25" t="n">
-        <v>147.5940869193057</v>
+        <v>146.5355812488564</v>
       </c>
       <c r="S25" t="n">
-        <v>212.3588292301925</v>
+        <v>211.9485673275942</v>
       </c>
       <c r="T25" t="n">
-        <v>225.8810671737309</v>
+        <v>225.7804813134173</v>
       </c>
       <c r="U25" t="n">
-        <v>286.0209759380713</v>
+        <v>286.0196918632588</v>
       </c>
       <c r="V25" t="n">
         <v>252.9363510669392</v>
@@ -24455,22 +24457,22 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G26" t="n">
-        <v>413.5757291341046</v>
+        <v>413.5232476844809</v>
       </c>
       <c r="H26" t="n">
-        <v>325.0449731908182</v>
+        <v>324.5074975448595</v>
       </c>
       <c r="I26" t="n">
-        <v>155.914262079498</v>
+        <v>153.8909709928803</v>
       </c>
       <c r="J26" t="n">
-        <v>67.9631523158304</v>
+        <v>63.5088548808309</v>
       </c>
       <c r="K26" t="n">
-        <v>51.88939487364996</v>
+        <v>45.21355767607923</v>
       </c>
       <c r="L26" t="n">
-        <v>28.03073846089299</v>
+        <v>19.74877209940095</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -24479,25 +24481,25 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>8.842533845285175</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>41.52515647939825</v>
+        <v>33.97825842169817</v>
       </c>
       <c r="Q26" t="n">
-        <v>78.62651965517443</v>
+        <v>72.95911351212311</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8516372905796</v>
+        <v>126.5549494306548</v>
       </c>
       <c r="S26" t="n">
-        <v>176.7189127271495</v>
+        <v>175.5229916938495</v>
       </c>
       <c r="T26" t="n">
-        <v>217.3661359256932</v>
+        <v>217.1363983799654</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3754406749663</v>
+        <v>251.3712421589964</v>
       </c>
       <c r="V26" t="n">
         <v>328.5332215225193</v>
@@ -24534,19 +24536,19 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G27" t="n">
-        <v>135.3388654688392</v>
+        <v>135.3107854177504</v>
       </c>
       <c r="H27" t="n">
-        <v>103.853186096171</v>
+        <v>103.5819919185507</v>
       </c>
       <c r="I27" t="n">
-        <v>73.47245129300644</v>
+        <v>72.50566006034532</v>
       </c>
       <c r="J27" t="n">
-        <v>59.01111598880918</v>
+        <v>56.35816695151578</v>
       </c>
       <c r="K27" t="n">
-        <v>23.88873566319982</v>
+        <v>19.35442320295977</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -24564,19 +24566,19 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>49.12622445994228</v>
+        <v>45.54183057008632</v>
       </c>
       <c r="R27" t="n">
-        <v>99.54811248025331</v>
+        <v>97.80468615037421</v>
       </c>
       <c r="S27" t="n">
-        <v>156.2502105818714</v>
+        <v>155.7286359487097</v>
       </c>
       <c r="T27" t="n">
-        <v>195.6241423794499</v>
+        <v>195.5109600682632</v>
       </c>
       <c r="U27" t="n">
-        <v>224.6121543871878</v>
+        <v>224.6103070154057</v>
       </c>
       <c r="V27" t="n">
         <v>231.9087310396551</v>
@@ -24613,49 +24615,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G28" t="n">
-        <v>167.315857291905</v>
+        <v>167.2923159203422</v>
       </c>
       <c r="H28" t="n">
-        <v>156.5330761710749</v>
+        <v>156.3237719766351</v>
       </c>
       <c r="I28" t="n">
-        <v>136.5048717139874</v>
+        <v>135.7969184673545</v>
       </c>
       <c r="J28" t="n">
-        <v>83.25770908245346</v>
+        <v>81.59333411296618</v>
       </c>
       <c r="K28" t="n">
-        <v>59.1307418414051</v>
+        <v>56.39566249074964</v>
       </c>
       <c r="L28" t="n">
-        <v>46.21431199990579</v>
+        <v>42.71435208592931</v>
       </c>
       <c r="M28" t="n">
-        <v>45.51759718949943</v>
+        <v>41.82738019080209</v>
       </c>
       <c r="N28" t="n">
-        <v>36.69681798203466</v>
+        <v>33.09434609552579</v>
       </c>
       <c r="O28" t="n">
-        <v>53.9007658016241</v>
+        <v>50.57329993746204</v>
       </c>
       <c r="P28" t="n">
-        <v>64.89457017833918</v>
+        <v>62.04734829405747</v>
       </c>
       <c r="Q28" t="n">
-        <v>99.67517550244999</v>
+        <v>97.70390665277179</v>
       </c>
       <c r="R28" t="n">
-        <v>147.5940869193057</v>
+        <v>146.5355812488564</v>
       </c>
       <c r="S28" t="n">
-        <v>212.3588292301925</v>
+        <v>211.9485673275942</v>
       </c>
       <c r="T28" t="n">
-        <v>225.8810671737309</v>
+        <v>225.7804813134173</v>
       </c>
       <c r="U28" t="n">
-        <v>286.0209759380713</v>
+        <v>286.0196918632588</v>
       </c>
       <c r="V28" t="n">
         <v>252.9363510669392</v>
@@ -24692,22 +24694,22 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G29" t="n">
-        <v>413.5757291341046</v>
+        <v>413.5232476844809</v>
       </c>
       <c r="H29" t="n">
-        <v>325.0449731908182</v>
+        <v>324.5074975448595</v>
       </c>
       <c r="I29" t="n">
-        <v>155.914262079498</v>
+        <v>153.8909709928803</v>
       </c>
       <c r="J29" t="n">
-        <v>67.9631523158304</v>
+        <v>63.5088548808309</v>
       </c>
       <c r="K29" t="n">
-        <v>51.88939487364996</v>
+        <v>45.21355767607923</v>
       </c>
       <c r="L29" t="n">
-        <v>28.03073846089299</v>
+        <v>19.74877209940095</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -24716,25 +24718,25 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>8.842533845285203</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>41.52515647939825</v>
+        <v>33.97825842169817</v>
       </c>
       <c r="Q29" t="n">
-        <v>78.62651965517443</v>
+        <v>72.95911351212311</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8516372905796</v>
+        <v>126.5549494306548</v>
       </c>
       <c r="S29" t="n">
-        <v>176.7189127271495</v>
+        <v>175.5229916938495</v>
       </c>
       <c r="T29" t="n">
-        <v>217.3661359256932</v>
+        <v>217.1363983799654</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3754406749663</v>
+        <v>251.3712421589964</v>
       </c>
       <c r="V29" t="n">
         <v>328.5332215225193</v>
@@ -24771,19 +24773,19 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G30" t="n">
-        <v>135.3388654688392</v>
+        <v>135.3107854177504</v>
       </c>
       <c r="H30" t="n">
-        <v>103.853186096171</v>
+        <v>103.5819919185507</v>
       </c>
       <c r="I30" t="n">
-        <v>73.47245129300644</v>
+        <v>72.50566006034532</v>
       </c>
       <c r="J30" t="n">
-        <v>59.01111598880918</v>
+        <v>56.35816695151578</v>
       </c>
       <c r="K30" t="n">
-        <v>23.88873566319981</v>
+        <v>19.35442320295977</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -24801,19 +24803,19 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>49.12622445994228</v>
+        <v>45.54183057008632</v>
       </c>
       <c r="R30" t="n">
-        <v>99.54811248025331</v>
+        <v>97.80468615037421</v>
       </c>
       <c r="S30" t="n">
-        <v>156.2502105818714</v>
+        <v>155.7286359487097</v>
       </c>
       <c r="T30" t="n">
-        <v>195.6241423794499</v>
+        <v>195.5109600682632</v>
       </c>
       <c r="U30" t="n">
-        <v>224.6121543871878</v>
+        <v>224.6103070154057</v>
       </c>
       <c r="V30" t="n">
         <v>231.9087310396551</v>
@@ -24850,49 +24852,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G31" t="n">
-        <v>167.315857291905</v>
+        <v>167.2923159203422</v>
       </c>
       <c r="H31" t="n">
-        <v>156.5330761710749</v>
+        <v>156.3237719766351</v>
       </c>
       <c r="I31" t="n">
-        <v>136.5048717139874</v>
+        <v>135.7969184673545</v>
       </c>
       <c r="J31" t="n">
-        <v>83.25770908245346</v>
+        <v>81.59333411296618</v>
       </c>
       <c r="K31" t="n">
-        <v>59.1307418414051</v>
+        <v>56.39566249074964</v>
       </c>
       <c r="L31" t="n">
-        <v>46.21431199990579</v>
+        <v>42.71435208592931</v>
       </c>
       <c r="M31" t="n">
-        <v>45.51759718949943</v>
+        <v>41.82738019080209</v>
       </c>
       <c r="N31" t="n">
-        <v>36.69681798203466</v>
+        <v>33.09434609552579</v>
       </c>
       <c r="O31" t="n">
-        <v>53.9007658016241</v>
+        <v>50.57329993746204</v>
       </c>
       <c r="P31" t="n">
-        <v>64.89457017833917</v>
+        <v>62.04734829405747</v>
       </c>
       <c r="Q31" t="n">
-        <v>99.67517550244999</v>
+        <v>97.70390665277179</v>
       </c>
       <c r="R31" t="n">
-        <v>147.5940869193057</v>
+        <v>146.5355812488564</v>
       </c>
       <c r="S31" t="n">
-        <v>212.3588292301925</v>
+        <v>211.9485673275942</v>
       </c>
       <c r="T31" t="n">
-        <v>225.8810671737309</v>
+        <v>225.7804813134173</v>
       </c>
       <c r="U31" t="n">
-        <v>286.0209759380713</v>
+        <v>286.0196918632588</v>
       </c>
       <c r="V31" t="n">
         <v>252.9363510669392</v>
@@ -24929,22 +24931,22 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G32" t="n">
-        <v>413.5757291341046</v>
+        <v>413.5232476844809</v>
       </c>
       <c r="H32" t="n">
-        <v>325.0449731908182</v>
+        <v>324.5074975448595</v>
       </c>
       <c r="I32" t="n">
-        <v>155.914262079498</v>
+        <v>153.8909709928803</v>
       </c>
       <c r="J32" t="n">
-        <v>67.9631523158304</v>
+        <v>63.5088548808309</v>
       </c>
       <c r="K32" t="n">
-        <v>51.88939487364996</v>
+        <v>45.21355767607923</v>
       </c>
       <c r="L32" t="n">
-        <v>28.03073846089299</v>
+        <v>19.74877209940095</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -24953,25 +24955,25 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>8.842533845285203</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>41.52515647939825</v>
+        <v>33.97825842169817</v>
       </c>
       <c r="Q32" t="n">
-        <v>78.62651965517443</v>
+        <v>72.95911351212311</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8516372905796</v>
+        <v>126.5549494306548</v>
       </c>
       <c r="S32" t="n">
-        <v>176.7189127271495</v>
+        <v>175.5229916938495</v>
       </c>
       <c r="T32" t="n">
-        <v>217.3661359256932</v>
+        <v>217.1363983799654</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3754406749663</v>
+        <v>251.3712421589964</v>
       </c>
       <c r="V32" t="n">
         <v>328.5332215225193</v>
@@ -25008,19 +25010,19 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G33" t="n">
-        <v>135.3388654688392</v>
+        <v>135.3107854177504</v>
       </c>
       <c r="H33" t="n">
-        <v>103.853186096171</v>
+        <v>103.5819919185507</v>
       </c>
       <c r="I33" t="n">
-        <v>73.47245129300644</v>
+        <v>72.50566006034532</v>
       </c>
       <c r="J33" t="n">
-        <v>59.01111598880918</v>
+        <v>56.35816695151578</v>
       </c>
       <c r="K33" t="n">
-        <v>23.88873566319981</v>
+        <v>19.35442320295977</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -25038,19 +25040,19 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>49.12622445994228</v>
+        <v>45.54183057008632</v>
       </c>
       <c r="R33" t="n">
-        <v>99.54811248025331</v>
+        <v>97.80468615037421</v>
       </c>
       <c r="S33" t="n">
-        <v>156.2502105818714</v>
+        <v>155.7286359487097</v>
       </c>
       <c r="T33" t="n">
-        <v>195.6241423794499</v>
+        <v>195.5109600682632</v>
       </c>
       <c r="U33" t="n">
-        <v>224.6121543871878</v>
+        <v>224.6103070154057</v>
       </c>
       <c r="V33" t="n">
         <v>231.9087310396551</v>
@@ -25087,49 +25089,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G34" t="n">
-        <v>167.315857291905</v>
+        <v>167.2923159203422</v>
       </c>
       <c r="H34" t="n">
-        <v>156.5330761710749</v>
+        <v>156.3237719766351</v>
       </c>
       <c r="I34" t="n">
-        <v>136.5048717139874</v>
+        <v>135.7969184673545</v>
       </c>
       <c r="J34" t="n">
-        <v>83.25770908245346</v>
+        <v>81.59333411296618</v>
       </c>
       <c r="K34" t="n">
-        <v>59.1307418414051</v>
+        <v>56.39566249074964</v>
       </c>
       <c r="L34" t="n">
-        <v>46.21431199990579</v>
+        <v>42.71435208592931</v>
       </c>
       <c r="M34" t="n">
-        <v>45.51759718949943</v>
+        <v>41.82738019080209</v>
       </c>
       <c r="N34" t="n">
-        <v>36.69681798203466</v>
+        <v>33.09434609552579</v>
       </c>
       <c r="O34" t="n">
-        <v>53.9007658016241</v>
+        <v>50.57329993746204</v>
       </c>
       <c r="P34" t="n">
-        <v>64.89457017833917</v>
+        <v>62.04734829405747</v>
       </c>
       <c r="Q34" t="n">
-        <v>99.67517550244999</v>
+        <v>97.70390665277179</v>
       </c>
       <c r="R34" t="n">
-        <v>147.5940869193057</v>
+        <v>146.5355812488564</v>
       </c>
       <c r="S34" t="n">
-        <v>212.3588292301925</v>
+        <v>211.9485673275942</v>
       </c>
       <c r="T34" t="n">
-        <v>225.8810671737309</v>
+        <v>225.7804813134173</v>
       </c>
       <c r="U34" t="n">
-        <v>286.0209759380713</v>
+        <v>286.0196918632588</v>
       </c>
       <c r="V34" t="n">
         <v>252.9363510669392</v>
@@ -25166,22 +25168,22 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G35" t="n">
-        <v>413.5757291341046</v>
+        <v>413.5232476844809</v>
       </c>
       <c r="H35" t="n">
-        <v>325.0449731908182</v>
+        <v>324.5074975448595</v>
       </c>
       <c r="I35" t="n">
-        <v>155.914262079498</v>
+        <v>153.8909709928803</v>
       </c>
       <c r="J35" t="n">
-        <v>67.9631523158304</v>
+        <v>63.5088548808309</v>
       </c>
       <c r="K35" t="n">
-        <v>51.88939487364996</v>
+        <v>45.21355767607923</v>
       </c>
       <c r="L35" t="n">
-        <v>28.03073846089299</v>
+        <v>19.74877209940095</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -25190,25 +25192,25 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>8.842533845285203</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>41.52515647939825</v>
+        <v>33.97825842169817</v>
       </c>
       <c r="Q35" t="n">
-        <v>78.62651965517443</v>
+        <v>72.95911351212311</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8516372905796</v>
+        <v>126.5549494306548</v>
       </c>
       <c r="S35" t="n">
-        <v>176.7189127271495</v>
+        <v>175.5229916938495</v>
       </c>
       <c r="T35" t="n">
-        <v>217.3661359256932</v>
+        <v>217.1363983799654</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3754406749663</v>
+        <v>251.3712421589964</v>
       </c>
       <c r="V35" t="n">
         <v>328.5332215225193</v>
@@ -25245,19 +25247,19 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G36" t="n">
-        <v>135.3388654688392</v>
+        <v>135.3107854177504</v>
       </c>
       <c r="H36" t="n">
-        <v>103.853186096171</v>
+        <v>103.5819919185507</v>
       </c>
       <c r="I36" t="n">
-        <v>73.47245129300644</v>
+        <v>72.50566006034532</v>
       </c>
       <c r="J36" t="n">
-        <v>59.01111598880918</v>
+        <v>56.35816695151578</v>
       </c>
       <c r="K36" t="n">
-        <v>23.88873566319981</v>
+        <v>19.35442320295977</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -25275,19 +25277,19 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>49.12622445994228</v>
+        <v>45.54183057008632</v>
       </c>
       <c r="R36" t="n">
-        <v>99.54811248025331</v>
+        <v>97.80468615037421</v>
       </c>
       <c r="S36" t="n">
-        <v>156.2502105818714</v>
+        <v>155.7286359487097</v>
       </c>
       <c r="T36" t="n">
-        <v>195.6241423794499</v>
+        <v>195.5109600682632</v>
       </c>
       <c r="U36" t="n">
-        <v>224.6121543871878</v>
+        <v>224.6103070154057</v>
       </c>
       <c r="V36" t="n">
         <v>231.9087310396551</v>
@@ -25324,49 +25326,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G37" t="n">
-        <v>167.315857291905</v>
+        <v>167.2923159203422</v>
       </c>
       <c r="H37" t="n">
-        <v>156.5330761710749</v>
+        <v>156.3237719766351</v>
       </c>
       <c r="I37" t="n">
-        <v>136.5048717139874</v>
+        <v>135.7969184673545</v>
       </c>
       <c r="J37" t="n">
-        <v>83.25770908245346</v>
+        <v>81.59333411296618</v>
       </c>
       <c r="K37" t="n">
-        <v>59.1307418414051</v>
+        <v>56.39566249074964</v>
       </c>
       <c r="L37" t="n">
-        <v>46.21431199990579</v>
+        <v>42.71435208592931</v>
       </c>
       <c r="M37" t="n">
-        <v>45.51759718949943</v>
+        <v>41.82738019080209</v>
       </c>
       <c r="N37" t="n">
-        <v>36.69681798203466</v>
+        <v>33.09434609552579</v>
       </c>
       <c r="O37" t="n">
-        <v>53.9007658016241</v>
+        <v>50.57329993746204</v>
       </c>
       <c r="P37" t="n">
-        <v>64.89457017833917</v>
+        <v>62.04734829405747</v>
       </c>
       <c r="Q37" t="n">
-        <v>99.67517550244999</v>
+        <v>97.70390665277179</v>
       </c>
       <c r="R37" t="n">
-        <v>147.5940869193057</v>
+        <v>146.5355812488564</v>
       </c>
       <c r="S37" t="n">
-        <v>212.3588292301925</v>
+        <v>211.9485673275942</v>
       </c>
       <c r="T37" t="n">
-        <v>225.8810671737309</v>
+        <v>225.7804813134173</v>
       </c>
       <c r="U37" t="n">
-        <v>286.0209759380713</v>
+        <v>286.0196918632588</v>
       </c>
       <c r="V37" t="n">
         <v>252.9363510669392</v>
@@ -25403,22 +25405,22 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G38" t="n">
-        <v>413.5757291341046</v>
+        <v>413.5232476844809</v>
       </c>
       <c r="H38" t="n">
-        <v>325.0449731908182</v>
+        <v>324.5074975448595</v>
       </c>
       <c r="I38" t="n">
-        <v>155.914262079498</v>
+        <v>153.8909709928803</v>
       </c>
       <c r="J38" t="n">
-        <v>67.9631523158304</v>
+        <v>63.5088548808309</v>
       </c>
       <c r="K38" t="n">
-        <v>51.88939487364996</v>
+        <v>45.21355767607923</v>
       </c>
       <c r="L38" t="n">
-        <v>28.03073846089299</v>
+        <v>19.74877209940095</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -25427,25 +25429,25 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>8.842533845285203</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>41.52515647939825</v>
+        <v>33.97825842169817</v>
       </c>
       <c r="Q38" t="n">
-        <v>78.62651965517443</v>
+        <v>72.95911351212311</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8516372905796</v>
+        <v>126.5549494306548</v>
       </c>
       <c r="S38" t="n">
-        <v>176.7189127271495</v>
+        <v>175.5229916938495</v>
       </c>
       <c r="T38" t="n">
-        <v>217.3661359256932</v>
+        <v>217.1363983799654</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3754406749663</v>
+        <v>251.3712421589964</v>
       </c>
       <c r="V38" t="n">
         <v>328.5332215225193</v>
@@ -25482,19 +25484,19 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G39" t="n">
-        <v>135.3388654688392</v>
+        <v>135.3107854177504</v>
       </c>
       <c r="H39" t="n">
-        <v>103.853186096171</v>
+        <v>103.5819919185507</v>
       </c>
       <c r="I39" t="n">
-        <v>73.47245129300644</v>
+        <v>72.50566006034532</v>
       </c>
       <c r="J39" t="n">
-        <v>59.01111598880918</v>
+        <v>56.35816695151578</v>
       </c>
       <c r="K39" t="n">
-        <v>23.88873566319981</v>
+        <v>19.35442320295975</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -25512,19 +25514,19 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>49.12622445994228</v>
+        <v>45.54183057008632</v>
       </c>
       <c r="R39" t="n">
-        <v>99.54811248025331</v>
+        <v>97.80468615037421</v>
       </c>
       <c r="S39" t="n">
-        <v>156.2502105818714</v>
+        <v>155.7286359487097</v>
       </c>
       <c r="T39" t="n">
-        <v>195.6241423794499</v>
+        <v>195.5109600682632</v>
       </c>
       <c r="U39" t="n">
-        <v>224.6121543871878</v>
+        <v>224.6103070154057</v>
       </c>
       <c r="V39" t="n">
         <v>231.9087310396551</v>
@@ -25561,49 +25563,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G40" t="n">
-        <v>167.315857291905</v>
+        <v>167.2923159203422</v>
       </c>
       <c r="H40" t="n">
-        <v>156.5330761710749</v>
+        <v>156.3237719766351</v>
       </c>
       <c r="I40" t="n">
-        <v>136.5048717139874</v>
+        <v>135.7969184673545</v>
       </c>
       <c r="J40" t="n">
-        <v>83.25770908245346</v>
+        <v>81.59333411296618</v>
       </c>
       <c r="K40" t="n">
-        <v>59.1307418414051</v>
+        <v>56.39566249074963</v>
       </c>
       <c r="L40" t="n">
-        <v>46.21431199990579</v>
+        <v>42.71435208592931</v>
       </c>
       <c r="M40" t="n">
-        <v>45.51759718949943</v>
+        <v>41.82738019080209</v>
       </c>
       <c r="N40" t="n">
-        <v>36.69681798203466</v>
+        <v>33.09434609552578</v>
       </c>
       <c r="O40" t="n">
-        <v>53.9007658016241</v>
+        <v>50.57329993746204</v>
       </c>
       <c r="P40" t="n">
-        <v>64.89457017833917</v>
+        <v>62.04734829405747</v>
       </c>
       <c r="Q40" t="n">
-        <v>99.67517550244999</v>
+        <v>97.70390665277179</v>
       </c>
       <c r="R40" t="n">
-        <v>147.5940869193057</v>
+        <v>146.5355812488564</v>
       </c>
       <c r="S40" t="n">
-        <v>212.3588292301925</v>
+        <v>211.9485673275942</v>
       </c>
       <c r="T40" t="n">
-        <v>225.8810671737309</v>
+        <v>225.7804813134173</v>
       </c>
       <c r="U40" t="n">
-        <v>286.0209759380713</v>
+        <v>286.0196918632588</v>
       </c>
       <c r="V40" t="n">
         <v>252.9363510669392</v>
@@ -25640,22 +25642,22 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G41" t="n">
-        <v>413.5757291341046</v>
+        <v>413.5232476844809</v>
       </c>
       <c r="H41" t="n">
-        <v>325.0449731908182</v>
+        <v>324.5074975448595</v>
       </c>
       <c r="I41" t="n">
-        <v>155.914262079498</v>
+        <v>153.8909709928803</v>
       </c>
       <c r="J41" t="n">
-        <v>67.9631523158304</v>
+        <v>63.5088548808309</v>
       </c>
       <c r="K41" t="n">
-        <v>51.88939487364996</v>
+        <v>45.21355767607923</v>
       </c>
       <c r="L41" t="n">
-        <v>28.03073846089299</v>
+        <v>19.74877209940095</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -25664,25 +25666,25 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>8.842533845285203</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>41.52515647939825</v>
+        <v>33.97825842169817</v>
       </c>
       <c r="Q41" t="n">
-        <v>78.62651965517443</v>
+        <v>72.95911351212311</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8516372905796</v>
+        <v>126.5549494306548</v>
       </c>
       <c r="S41" t="n">
-        <v>176.7189127271495</v>
+        <v>175.5229916938495</v>
       </c>
       <c r="T41" t="n">
-        <v>217.3661359256932</v>
+        <v>217.1363983799654</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3754406749663</v>
+        <v>251.3712421589964</v>
       </c>
       <c r="V41" t="n">
         <v>328.5332215225193</v>
@@ -25719,19 +25721,19 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G42" t="n">
-        <v>135.3388654688392</v>
+        <v>135.3107854177504</v>
       </c>
       <c r="H42" t="n">
-        <v>103.853186096171</v>
+        <v>103.5819919185507</v>
       </c>
       <c r="I42" t="n">
-        <v>73.47245129300644</v>
+        <v>72.50566006034532</v>
       </c>
       <c r="J42" t="n">
-        <v>59.01111598880918</v>
+        <v>56.35816695151578</v>
       </c>
       <c r="K42" t="n">
-        <v>23.88873566319981</v>
+        <v>19.35442320295975</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -25749,19 +25751,19 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>49.12622445994228</v>
+        <v>45.54183057008632</v>
       </c>
       <c r="R42" t="n">
-        <v>99.54811248025331</v>
+        <v>97.80468615037421</v>
       </c>
       <c r="S42" t="n">
-        <v>156.2502105818714</v>
+        <v>155.7286359487097</v>
       </c>
       <c r="T42" t="n">
-        <v>195.6241423794499</v>
+        <v>195.5109600682632</v>
       </c>
       <c r="U42" t="n">
-        <v>224.6121543871878</v>
+        <v>224.6103070154057</v>
       </c>
       <c r="V42" t="n">
         <v>231.9087310396551</v>
@@ -25798,49 +25800,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G43" t="n">
-        <v>167.315857291905</v>
+        <v>167.2923159203422</v>
       </c>
       <c r="H43" t="n">
-        <v>156.5330761710749</v>
+        <v>156.3237719766351</v>
       </c>
       <c r="I43" t="n">
-        <v>136.5048717139874</v>
+        <v>135.7969184673545</v>
       </c>
       <c r="J43" t="n">
-        <v>83.25770908245346</v>
+        <v>81.59333411296618</v>
       </c>
       <c r="K43" t="n">
-        <v>59.1307418414051</v>
+        <v>56.39566249074963</v>
       </c>
       <c r="L43" t="n">
-        <v>46.21431199990579</v>
+        <v>42.71435208592931</v>
       </c>
       <c r="M43" t="n">
-        <v>45.51759718949943</v>
+        <v>41.82738019080209</v>
       </c>
       <c r="N43" t="n">
-        <v>36.69681798203466</v>
+        <v>33.09434609552578</v>
       </c>
       <c r="O43" t="n">
-        <v>53.9007658016241</v>
+        <v>50.57329993746204</v>
       </c>
       <c r="P43" t="n">
-        <v>64.89457017833917</v>
+        <v>62.04734829405747</v>
       </c>
       <c r="Q43" t="n">
-        <v>99.67517550244999</v>
+        <v>97.70390665277179</v>
       </c>
       <c r="R43" t="n">
-        <v>147.5940869193057</v>
+        <v>146.5355812488564</v>
       </c>
       <c r="S43" t="n">
-        <v>212.3588292301925</v>
+        <v>211.9485673275942</v>
       </c>
       <c r="T43" t="n">
-        <v>225.8810671737309</v>
+        <v>225.7804813134173</v>
       </c>
       <c r="U43" t="n">
-        <v>286.0209759380713</v>
+        <v>286.0196918632588</v>
       </c>
       <c r="V43" t="n">
         <v>252.9363510669392</v>
@@ -25877,22 +25879,22 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G44" t="n">
-        <v>413.5757291341046</v>
+        <v>413.2992339679078</v>
       </c>
       <c r="H44" t="n">
-        <v>325.0449731908182</v>
+        <v>322.2133170700056</v>
       </c>
       <c r="I44" t="n">
-        <v>155.914262079498</v>
+        <v>145.2546821846975</v>
       </c>
       <c r="J44" t="n">
-        <v>67.9631523158304</v>
+        <v>44.49597070383828</v>
       </c>
       <c r="K44" t="n">
-        <v>51.88939487364996</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>28.03073846089299</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -25901,25 +25903,25 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>8.842533845285203</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>41.52515647939825</v>
+        <v>1.764805961346667</v>
       </c>
       <c r="Q44" t="n">
-        <v>78.62651965517443</v>
+        <v>14.70405113643709</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8516372905796</v>
+        <v>74.7394567187235</v>
       </c>
       <c r="S44" t="n">
-        <v>176.7189127271495</v>
+        <v>132.674488039192</v>
       </c>
       <c r="T44" t="n">
-        <v>217.3661359256932</v>
+        <v>216.1557783356668</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3754406749663</v>
+        <v>251.3533210616706</v>
       </c>
       <c r="V44" t="n">
         <v>328.5332215225193</v>
@@ -25941,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>165.3721256103448</v>
+        <v>127.6283345220959</v>
       </c>
       <c r="C45" t="n">
         <v>171.025583927401</v>
@@ -25950,25 +25952,25 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E45" t="n">
-        <v>156.0334337071738</v>
+        <v>118.2896426189249</v>
       </c>
       <c r="F45" t="n">
         <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
-        <v>135.3388654688392</v>
+        <v>135.1909275126991</v>
       </c>
       <c r="H45" t="n">
-        <v>103.853186096171</v>
+        <v>102.4244168881865</v>
       </c>
       <c r="I45" t="n">
-        <v>73.47245129300644</v>
+        <v>68.37897341713065</v>
       </c>
       <c r="J45" t="n">
-        <v>59.01111598880918</v>
+        <v>7.290432298746239</v>
       </c>
       <c r="K45" t="n">
-        <v>23.88873566319981</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -25986,19 +25988,19 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>49.12622445994228</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>99.54811248025331</v>
+        <v>90.36298218587145</v>
       </c>
       <c r="S45" t="n">
-        <v>156.2502105818714</v>
+        <v>153.5023279316378</v>
       </c>
       <c r="T45" t="n">
-        <v>195.6241423794499</v>
+        <v>195.0278486000958</v>
       </c>
       <c r="U45" t="n">
-        <v>224.6121543871878</v>
+        <v>224.6024216269155</v>
       </c>
       <c r="V45" t="n">
         <v>231.9087310396551</v>
@@ -26010,7 +26012,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y45" t="n">
-        <v>203.671151418586</v>
+        <v>200.6684943568536</v>
       </c>
     </row>
     <row r="46">
@@ -26035,49 +26037,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G46" t="n">
-        <v>167.315857291905</v>
+        <v>167.1918310790352</v>
       </c>
       <c r="H46" t="n">
-        <v>156.5330761710749</v>
+        <v>155.4303703875596</v>
       </c>
       <c r="I46" t="n">
-        <v>136.5048717139874</v>
+        <v>132.7750652396842</v>
       </c>
       <c r="J46" t="n">
-        <v>83.25770908245346</v>
+        <v>74.48905583255744</v>
       </c>
       <c r="K46" t="n">
-        <v>59.1307418414051</v>
+        <v>44.72115092798461</v>
       </c>
       <c r="L46" t="n">
-        <v>46.21431199990579</v>
+        <v>27.77499667924235</v>
       </c>
       <c r="M46" t="n">
-        <v>45.51759718949943</v>
+        <v>26.07592456664267</v>
       </c>
       <c r="N46" t="n">
-        <v>36.69681798203466</v>
+        <v>17.71742487987446</v>
       </c>
       <c r="O46" t="n">
-        <v>53.9007658016241</v>
+        <v>36.37022436798858</v>
       </c>
       <c r="P46" t="n">
-        <v>64.89457017833917</v>
+        <v>49.89416348724792</v>
       </c>
       <c r="Q46" t="n">
-        <v>99.67517550244999</v>
+        <v>89.28967144114199</v>
       </c>
       <c r="R46" t="n">
-        <v>147.5940869193057</v>
+        <v>142.0174173842683</v>
       </c>
       <c r="S46" t="n">
-        <v>212.3588292301925</v>
+        <v>210.1973905931794</v>
       </c>
       <c r="T46" t="n">
-        <v>225.8810671737309</v>
+        <v>225.3511369914689</v>
       </c>
       <c r="U46" t="n">
-        <v>286.0209759380713</v>
+        <v>286.0142108719148</v>
       </c>
       <c r="V46" t="n">
         <v>252.9363510669392</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>252459.278455617</v>
+        <v>238627.6606318264</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>269564.1489903721</v>
+        <v>252459.278455617</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>273837.010311331</v>
+        <v>281256.4800032555</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>273837.010311331</v>
+        <v>281256.4800032555</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>273837.010311331</v>
+        <v>281256.4800032555</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>273837.010311331</v>
+        <v>281256.4800032555</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>273837.010311331</v>
+        <v>281256.4800032555</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>273837.010311331</v>
+        <v>281256.4800032555</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>273837.010311331</v>
+        <v>281256.4800032555</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>273837.010311331</v>
+        <v>281256.4800032555</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>273837.010311331</v>
+        <v>281256.4800032555</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>273837.010311331</v>
+        <v>281256.4800032555</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>273837.010311331</v>
+        <v>281256.4800032555</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>273837.010311331</v>
+        <v>330348.2276679207</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>52232.95416323112</v>
+        <v>49371.24013072273</v>
       </c>
       <c r="C2" t="n">
-        <v>55771.89289455975</v>
+        <v>52232.95416323111</v>
       </c>
       <c r="D2" t="n">
         <v>55771.89289455975</v>
       </c>
       <c r="E2" t="n">
-        <v>56655.93316786159</v>
+        <v>58190.99586274254</v>
       </c>
       <c r="F2" t="n">
-        <v>56655.93316786159</v>
+        <v>58190.99586274255</v>
       </c>
       <c r="G2" t="n">
-        <v>56655.93316786159</v>
+        <v>58190.99586274256</v>
       </c>
       <c r="H2" t="n">
-        <v>56655.93316786159</v>
+        <v>58190.99586274256</v>
       </c>
       <c r="I2" t="n">
-        <v>56655.93316786159</v>
+        <v>58190.99586274257</v>
       </c>
       <c r="J2" t="n">
-        <v>56655.93316786159</v>
+        <v>58190.99586274254</v>
       </c>
       <c r="K2" t="n">
-        <v>56655.93316786159</v>
+        <v>58190.99586274255</v>
       </c>
       <c r="L2" t="n">
-        <v>56655.93316786159</v>
+        <v>58190.99586274255</v>
       </c>
       <c r="M2" t="n">
-        <v>56655.93316786159</v>
+        <v>58190.99586274254</v>
       </c>
       <c r="N2" t="n">
-        <v>56655.93316786159</v>
+        <v>58190.99586274255</v>
       </c>
       <c r="O2" t="n">
-        <v>56655.93316786159</v>
+        <v>58190.99586274255</v>
       </c>
       <c r="P2" t="n">
-        <v>56655.9331678616</v>
+        <v>68347.90917267326</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>278730.3917082689</v>
+        <v>261785.443115605</v>
       </c>
       <c r="C3" t="n">
-        <v>20552.42851649184</v>
+        <v>16012.76039071389</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>19329.39694347568</v>
       </c>
       <c r="E3" t="n">
-        <v>5089.22383662715</v>
+        <v>15577.45766204447</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>46009.81653837394</v>
       </c>
     </row>
     <row r="4">
@@ -26457,7 +26459,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>24.88776764903395</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>39550.0218227859</v>
+      </c>
+      <c r="C5" t="n">
         <v>39933.37061459347</v>
-      </c>
-      <c r="C5" t="n">
-        <v>40425.3999991759</v>
       </c>
       <c r="D5" t="n">
         <v>40425.3999991759</v>
       </c>
       <c r="E5" t="n">
-        <v>6935.893931658688</v>
+        <v>7220.487712605606</v>
       </c>
       <c r="F5" t="n">
-        <v>6935.893931658688</v>
+        <v>7220.487712605606</v>
       </c>
       <c r="G5" t="n">
-        <v>6935.893931658688</v>
+        <v>7220.487712605606</v>
       </c>
       <c r="H5" t="n">
-        <v>6935.893931658688</v>
+        <v>7220.487712605606</v>
       </c>
       <c r="I5" t="n">
-        <v>6935.893931658688</v>
+        <v>7220.487712605606</v>
       </c>
       <c r="J5" t="n">
-        <v>6935.893931658688</v>
+        <v>7220.487712605606</v>
       </c>
       <c r="K5" t="n">
-        <v>6935.893931658688</v>
+        <v>7220.487712605606</v>
       </c>
       <c r="L5" t="n">
-        <v>6935.893931658688</v>
+        <v>7220.487712605606</v>
       </c>
       <c r="M5" t="n">
-        <v>6935.893931658688</v>
+        <v>7220.487712605606</v>
       </c>
       <c r="N5" t="n">
-        <v>6935.893931658688</v>
+        <v>7220.487712605606</v>
       </c>
       <c r="O5" t="n">
-        <v>6935.893931658688</v>
+        <v>7220.487712605606</v>
       </c>
       <c r="P5" t="n">
-        <v>6935.893931658688</v>
+        <v>10730.08059231769</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-266430.8081596312</v>
+        <v>-251964.2248076681</v>
       </c>
       <c r="C6" t="n">
-        <v>-5205.935621107979</v>
+        <v>-3713.176842076246</v>
       </c>
       <c r="D6" t="n">
-        <v>15346.49289538385</v>
+        <v>-3982.904048091827</v>
       </c>
       <c r="E6" t="n">
-        <v>44630.81539957576</v>
+        <v>35393.05048809247</v>
       </c>
       <c r="F6" t="n">
-        <v>49720.03923620289</v>
+        <v>50970.50815013694</v>
       </c>
       <c r="G6" t="n">
-        <v>49720.03923620291</v>
+        <v>50970.50815013695</v>
       </c>
       <c r="H6" t="n">
-        <v>49720.03923620291</v>
+        <v>50970.50815013695</v>
       </c>
       <c r="I6" t="n">
-        <v>49720.03923620289</v>
+        <v>50970.50815013696</v>
       </c>
       <c r="J6" t="n">
-        <v>49720.03923620291</v>
+        <v>50970.50815013694</v>
       </c>
       <c r="K6" t="n">
-        <v>49720.03923620289</v>
+        <v>50970.50815013694</v>
       </c>
       <c r="L6" t="n">
-        <v>49720.03923620289</v>
+        <v>50970.50815013694</v>
       </c>
       <c r="M6" t="n">
-        <v>49720.03923620289</v>
+        <v>50970.50815013694</v>
       </c>
       <c r="N6" t="n">
-        <v>49720.03923620289</v>
+        <v>50970.50815013694</v>
       </c>
       <c r="O6" t="n">
-        <v>49720.03923620289</v>
+        <v>50970.50815013694</v>
       </c>
       <c r="P6" t="n">
-        <v>49720.03923620291</v>
+        <v>11583.12427433259</v>
       </c>
     </row>
   </sheetData>
@@ -26735,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>271.6707258158669</v>
+      </c>
+      <c r="C3" t="n">
         <v>289.2555327795172</v>
-      </c>
-      <c r="C3" t="n">
-        <v>311.8256880355916</v>
       </c>
       <c r="D3" t="n">
         <v>311.8256880355916</v>
       </c>
       <c r="E3" t="n">
-        <v>318.1602720944352</v>
+        <v>331.2150326883306</v>
       </c>
       <c r="F3" t="n">
-        <v>318.1602720944352</v>
+        <v>331.2150326883306</v>
       </c>
       <c r="G3" t="n">
-        <v>318.1602720944352</v>
+        <v>331.2150326883306</v>
       </c>
       <c r="H3" t="n">
-        <v>318.1602720944352</v>
+        <v>331.2150326883306</v>
       </c>
       <c r="I3" t="n">
-        <v>318.1602720944352</v>
+        <v>331.2150326883306</v>
       </c>
       <c r="J3" t="n">
-        <v>318.1602720944352</v>
+        <v>331.2150326883306</v>
       </c>
       <c r="K3" t="n">
-        <v>318.1602720944352</v>
+        <v>331.2150326883306</v>
       </c>
       <c r="L3" t="n">
-        <v>318.1602720944352</v>
+        <v>331.2150326883306</v>
       </c>
       <c r="M3" t="n">
-        <v>318.1602720944352</v>
+        <v>331.2150326883306</v>
       </c>
       <c r="N3" t="n">
-        <v>318.1602720944352</v>
+        <v>331.2150326883306</v>
       </c>
       <c r="O3" t="n">
-        <v>318.1602720944352</v>
+        <v>331.2150326883306</v>
       </c>
       <c r="P3" t="n">
-        <v>318.1602720944352</v>
+        <v>386.9384446858788</v>
       </c>
     </row>
     <row r="4">
@@ -26829,7 +26831,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>37.74379108824891</v>
       </c>
     </row>
   </sheetData>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>289.2555327795172</v>
+        <v>271.6707258158669</v>
       </c>
       <c r="C3" t="n">
+        <v>17.58480696365029</v>
+      </c>
+      <c r="D3" t="n">
         <v>22.57015525607437</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
       <c r="E3" t="n">
-        <v>6.334584058843632</v>
+        <v>19.389344652739</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>55.72341199754828</v>
       </c>
     </row>
     <row r="4">
@@ -27051,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>37.74379108824891</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.162836312681475</v>
+        <v>1.092143621370318</v>
       </c>
       <c r="H2" t="n">
-        <v>11.90889738724916</v>
+        <v>11.18491586235877</v>
       </c>
       <c r="I2" t="n">
-        <v>44.83024694465261</v>
+        <v>42.10486696287924</v>
       </c>
       <c r="J2" t="n">
-        <v>98.69427849344945</v>
+        <v>92.69432468427914</v>
       </c>
       <c r="K2" t="n">
-        <v>147.9171396092563</v>
+        <v>138.9247641768847</v>
       </c>
       <c r="L2" t="n">
-        <v>183.5042914134821</v>
+        <v>172.3484545293967</v>
       </c>
       <c r="M2" t="n">
-        <v>204.1838816891312</v>
+        <v>191.770863655941</v>
       </c>
       <c r="N2" t="n">
-        <v>207.4877903625375</v>
+        <v>194.8739167201595</v>
       </c>
       <c r="O2" t="n">
-        <v>195.9248367783111</v>
+        <v>184.0139135851584</v>
       </c>
       <c r="P2" t="n">
-        <v>167.2173153089871</v>
+        <v>157.0516179325786</v>
       </c>
       <c r="Q2" t="n">
-        <v>125.5732398610817</v>
+        <v>117.939224492254</v>
       </c>
       <c r="R2" t="n">
-        <v>73.04501652647778</v>
+        <v>68.60436675590331</v>
       </c>
       <c r="S2" t="n">
-        <v>26.49813247522914</v>
+        <v>24.88722277197616</v>
       </c>
       <c r="T2" t="n">
-        <v>5.090315958763161</v>
+        <v>4.780858702548571</v>
       </c>
       <c r="U2" t="n">
-        <v>0.093026905014518</v>
+        <v>0.08737148970962545</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,22 +31120,22 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6221722780540558</v>
+        <v>0.5843483536416759</v>
       </c>
       <c r="H3" t="n">
-        <v>6.00887436962733</v>
+        <v>5.643574889118293</v>
       </c>
       <c r="I3" t="n">
-        <v>21.42128238036991</v>
+        <v>20.11901129862788</v>
       </c>
       <c r="J3" t="n">
-        <v>58.78163614720359</v>
+        <v>55.20810476226028</v>
       </c>
       <c r="K3" t="n">
-        <v>100.4671787768253</v>
+        <v>94.35944445625256</v>
       </c>
       <c r="L3" t="n">
-        <v>135.0905202853774</v>
+        <v>126.8779177501367</v>
       </c>
       <c r="M3" t="n">
         <v>138.5806830739679</v>
@@ -31145,22 +31147,22 @@
         <v>139.0313383333333</v>
       </c>
       <c r="P3" t="n">
-        <v>118.8076168505153</v>
+        <v>111.5849062318039</v>
       </c>
       <c r="Q3" t="n">
-        <v>79.41974552844405</v>
+        <v>74.59155475608482</v>
       </c>
       <c r="R3" t="n">
-        <v>38.62925775497025</v>
+        <v>36.28085655329635</v>
       </c>
       <c r="S3" t="n">
-        <v>11.55657718227599</v>
+        <v>10.85401437575656</v>
       </c>
       <c r="T3" t="n">
-        <v>2.507790892682794</v>
+        <v>2.355333934196053</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04093238671408263</v>
+        <v>0.03844397063432081</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5216083377991293</v>
+        <v>0.4898980301597599</v>
       </c>
       <c r="H4" t="n">
-        <v>4.637572312432262</v>
+        <v>4.355638849965868</v>
       </c>
       <c r="I4" t="n">
-        <v>15.68618528581382</v>
+        <v>14.73256985244078</v>
       </c>
       <c r="J4" t="n">
-        <v>36.87770948239844</v>
+        <v>34.63579073229502</v>
       </c>
       <c r="K4" t="n">
-        <v>60.60140506429882</v>
+        <v>56.9172438676521</v>
       </c>
       <c r="L4" t="n">
-        <v>77.54893414879056</v>
+        <v>72.83447622938832</v>
       </c>
       <c r="M4" t="n">
-        <v>81.7644778970035</v>
+        <v>76.79374303677035</v>
       </c>
       <c r="N4" t="n">
-        <v>79.82030136520682</v>
+        <v>74.96775946981131</v>
       </c>
       <c r="O4" t="n">
-        <v>73.72696760091695</v>
+        <v>69.24485975385409</v>
       </c>
       <c r="P4" t="n">
-        <v>63.08615750981467</v>
+        <v>59.25093993859494</v>
       </c>
       <c r="Q4" t="n">
-        <v>43.6775854497071</v>
+        <v>41.0222795981959</v>
       </c>
       <c r="R4" t="n">
-        <v>23.45340762504084</v>
+        <v>22.0275968833652</v>
       </c>
       <c r="S4" t="n">
-        <v>9.090210759644823</v>
+        <v>8.537586580147813</v>
       </c>
       <c r="T4" t="n">
-        <v>2.228690170596279</v>
+        <v>2.093200674318973</v>
       </c>
       <c r="U4" t="n">
-        <v>0.02845136387995254</v>
+        <v>0.02672171073598693</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.253570605168206</v>
+        <v>1.162836312681475</v>
       </c>
       <c r="H5" t="n">
-        <v>12.8381299601789</v>
+        <v>11.90889738724916</v>
       </c>
       <c r="I5" t="n">
-        <v>48.32828075574732</v>
+        <v>44.83024694465261</v>
       </c>
       <c r="J5" t="n">
-        <v>106.3952381503951</v>
+        <v>98.69427849344945</v>
       </c>
       <c r="K5" t="n">
-        <v>159.4588818671654</v>
+        <v>147.9171396092563</v>
       </c>
       <c r="L5" t="n">
-        <v>197.8228432750819</v>
+        <v>183.5042914134821</v>
       </c>
       <c r="M5" t="n">
-        <v>220.116029524742</v>
+        <v>204.1838816891312</v>
       </c>
       <c r="N5" t="n">
-        <v>223.6777370066762</v>
+        <v>207.4877903625375</v>
       </c>
       <c r="O5" t="n">
-        <v>211.2125443015348</v>
+        <v>195.9248367783111</v>
       </c>
       <c r="P5" t="n">
-        <v>180.2650199864447</v>
+        <v>167.2173153089871</v>
       </c>
       <c r="Q5" t="n">
-        <v>135.3715226888582</v>
+        <v>125.5732398610817</v>
       </c>
       <c r="R5" t="n">
-        <v>78.7446045268974</v>
+        <v>73.04501652647778</v>
       </c>
       <c r="S5" t="n">
-        <v>28.56574016527053</v>
+        <v>26.49813247522914</v>
       </c>
       <c r="T5" t="n">
-        <v>5.487505324123826</v>
+        <v>5.090315958763161</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1002856484134565</v>
+        <v>0.093026905014518</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,19 +31357,19 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.670719404453914</v>
+        <v>0.6221722780540558</v>
       </c>
       <c r="H6" t="n">
-        <v>6.477737406173327</v>
+        <v>6.00887436962733</v>
       </c>
       <c r="I6" t="n">
-        <v>23.0927514252773</v>
+        <v>21.42128238036991</v>
       </c>
       <c r="J6" t="n">
-        <v>63.36827496202527</v>
+        <v>58.78163614720359</v>
       </c>
       <c r="K6" t="n">
-        <v>108.3064750604375</v>
+        <v>100.4671787768253</v>
       </c>
       <c r="L6" t="n">
         <v>135.0905202853774</v>
@@ -31382,22 +31384,22 @@
         <v>139.0313383333333</v>
       </c>
       <c r="P6" t="n">
-        <v>128.0779887329584</v>
+        <v>118.8076168505153</v>
       </c>
       <c r="Q6" t="n">
-        <v>85.61674362818734</v>
+        <v>79.41974552844405</v>
       </c>
       <c r="R6" t="n">
-        <v>41.64343811162109</v>
+        <v>38.62925775497025</v>
       </c>
       <c r="S6" t="n">
-        <v>12.45831876255405</v>
+        <v>11.55657718227599</v>
       </c>
       <c r="T6" t="n">
-        <v>2.703469880233099</v>
+        <v>2.507790892682794</v>
       </c>
       <c r="U6" t="n">
-        <v>0.04412627660881015</v>
+        <v>0.04093238671408263</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5623086177690995</v>
+        <v>0.5216083377991293</v>
       </c>
       <c r="H7" t="n">
-        <v>4.999434801619815</v>
+        <v>4.637572312432262</v>
       </c>
       <c r="I7" t="n">
-        <v>16.91015370527438</v>
+        <v>15.68618528581382</v>
       </c>
       <c r="J7" t="n">
-        <v>39.75521927627533</v>
+        <v>36.87770948239844</v>
       </c>
       <c r="K7" t="n">
-        <v>65.33003759171899</v>
+        <v>60.60140506429882</v>
       </c>
       <c r="L7" t="n">
-        <v>83.59995577268958</v>
+        <v>77.54893414879056</v>
       </c>
       <c r="M7" t="n">
-        <v>88.14443178356892</v>
+        <v>81.7644778970035</v>
       </c>
       <c r="N7" t="n">
-        <v>86.04855420824779</v>
+        <v>79.82030136520682</v>
       </c>
       <c r="O7" t="n">
-        <v>79.47976717339965</v>
+        <v>73.72696760091695</v>
       </c>
       <c r="P7" t="n">
-        <v>68.00867137090997</v>
+        <v>63.08615750981467</v>
       </c>
       <c r="Q7" t="n">
-        <v>47.08567889337432</v>
+        <v>43.6775854497071</v>
       </c>
       <c r="R7" t="n">
-        <v>25.28344021350878</v>
+        <v>23.45340762504084</v>
       </c>
       <c r="S7" t="n">
-        <v>9.799505638757848</v>
+        <v>9.090210759644823</v>
       </c>
       <c r="T7" t="n">
-        <v>2.402591366831606</v>
+        <v>2.228690170596279</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03067137915104182</v>
+        <v>0.02845136387995254</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,22 +31752,22 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.279036269726372</v>
+        <v>1.331517719350072</v>
       </c>
       <c r="H11" t="n">
-        <v>13.09893019733521</v>
+        <v>13.63640584329392</v>
       </c>
       <c r="I11" t="n">
-        <v>49.31004578862599</v>
+        <v>51.33333687524368</v>
       </c>
       <c r="J11" t="n">
-        <v>108.5566045976887</v>
+        <v>113.0109020326882</v>
       </c>
       <c r="K11" t="n">
-        <v>162.6982098952061</v>
+        <v>169.3740470927768</v>
       </c>
       <c r="L11" t="n">
-        <v>201.8415161348446</v>
+        <v>210.1234824963366</v>
       </c>
       <c r="M11" t="n">
         <v>224.5875773965909</v>
@@ -31774,25 +31776,25 @@
         <v>223.6777370066762</v>
       </c>
       <c r="O11" t="n">
-        <v>215.5032222908594</v>
+        <v>224.3457561361446</v>
       </c>
       <c r="P11" t="n">
-        <v>183.9270143819896</v>
+        <v>191.4739124396896</v>
       </c>
       <c r="Q11" t="n">
-        <v>138.1215279724138</v>
+        <v>143.7889341154651</v>
       </c>
       <c r="R11" t="n">
-        <v>80.34426207819926</v>
+        <v>83.64094993812401</v>
       </c>
       <c r="S11" t="n">
-        <v>29.14603899638972</v>
+        <v>30.34196002968979</v>
       </c>
       <c r="T11" t="n">
-        <v>5.598981270727195</v>
+        <v>5.828718816454941</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1023229015781097</v>
+        <v>0.1065214175480057</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,19 +31831,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6843447362031247</v>
+        <v>0.7124247872918809</v>
       </c>
       <c r="H12" t="n">
-        <v>6.609329425961759</v>
+        <v>6.880523603582113</v>
       </c>
       <c r="I12" t="n">
-        <v>23.56186920699355</v>
+        <v>24.52866043965467</v>
       </c>
       <c r="J12" t="n">
-        <v>64.65557001119085</v>
+        <v>67.30851904848424</v>
       </c>
       <c r="K12" t="n">
-        <v>110.5066673368002</v>
+        <v>115.0409797970403</v>
       </c>
       <c r="L12" t="n">
         <v>135.0905202853774</v>
@@ -31859,19 +31861,19 @@
         <v>130.625047228972</v>
       </c>
       <c r="Q12" t="n">
-        <v>87.3560052739287</v>
+        <v>90.94039916378466</v>
       </c>
       <c r="R12" t="n">
-        <v>42.48940388461157</v>
+        <v>44.23283021449065</v>
       </c>
       <c r="S12" t="n">
-        <v>12.71140332377295</v>
+        <v>13.23297795693471</v>
       </c>
       <c r="T12" t="n">
-        <v>2.758389528818734</v>
+        <v>2.871571840005431</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04502268001336349</v>
+        <v>0.04687005179551849</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5737316382030798</v>
+        <v>0.5972730097658419</v>
       </c>
       <c r="H13" t="n">
-        <v>5.100995837841931</v>
+        <v>5.310300032281762</v>
       </c>
       <c r="I13" t="n">
-        <v>17.25367508341626</v>
+        <v>17.96162833004914</v>
       </c>
       <c r="J13" t="n">
-        <v>40.56282682095774</v>
+        <v>42.22720179044502</v>
       </c>
       <c r="K13" t="n">
-        <v>66.65718487486689</v>
+        <v>69.39226422552234</v>
       </c>
       <c r="L13" t="n">
-        <v>85.29824737430152</v>
+        <v>88.79820728827801</v>
       </c>
       <c r="M13" t="n">
-        <v>89.93504215941549</v>
+        <v>93.62525915811283</v>
       </c>
       <c r="N13" t="n">
-        <v>87.79658787156771</v>
+        <v>91.39905975807658</v>
       </c>
       <c r="O13" t="n">
-        <v>81.09435918892261</v>
+        <v>84.42182505308467</v>
       </c>
       <c r="P13" t="n">
-        <v>69.39023376957974</v>
+        <v>72.23745565386143</v>
       </c>
       <c r="Q13" t="n">
-        <v>48.04220108625971</v>
+        <v>50.01346993593791</v>
       </c>
       <c r="R13" t="n">
-        <v>25.79706075047665</v>
+        <v>26.85556642092594</v>
       </c>
       <c r="S13" t="n">
-        <v>9.998577731230032</v>
+        <v>10.40883963382835</v>
       </c>
       <c r="T13" t="n">
-        <v>2.451398817776795</v>
+        <v>2.551984678090415</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03129445299289529</v>
+        <v>0.0325785278054096</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,22 +31989,22 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.279036269726372</v>
+        <v>1.331517719350072</v>
       </c>
       <c r="H14" t="n">
-        <v>13.09893019733521</v>
+        <v>13.63640584329393</v>
       </c>
       <c r="I14" t="n">
-        <v>49.31004578862599</v>
+        <v>51.33333687524369</v>
       </c>
       <c r="J14" t="n">
-        <v>108.5566045976887</v>
+        <v>113.0109020326882</v>
       </c>
       <c r="K14" t="n">
-        <v>162.6982098952061</v>
+        <v>169.3740470927768</v>
       </c>
       <c r="L14" t="n">
-        <v>201.8415161348446</v>
+        <v>210.1234824963366</v>
       </c>
       <c r="M14" t="n">
         <v>224.5875773965909</v>
@@ -32011,25 +32013,25 @@
         <v>223.6777370066762</v>
       </c>
       <c r="O14" t="n">
-        <v>215.5032222908594</v>
+        <v>224.3457561361446</v>
       </c>
       <c r="P14" t="n">
-        <v>183.9270143819896</v>
+        <v>191.4739124396896</v>
       </c>
       <c r="Q14" t="n">
-        <v>138.1215279724138</v>
+        <v>143.7889341154651</v>
       </c>
       <c r="R14" t="n">
-        <v>80.34426207819926</v>
+        <v>83.64094993812401</v>
       </c>
       <c r="S14" t="n">
-        <v>29.14603899638972</v>
+        <v>30.34196002968979</v>
       </c>
       <c r="T14" t="n">
-        <v>5.598981270727195</v>
+        <v>5.828718816454942</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1023229015781097</v>
+        <v>0.1065214175480057</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,19 +32068,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6843447362031247</v>
+        <v>0.7124247872918809</v>
       </c>
       <c r="H15" t="n">
-        <v>6.609329425961759</v>
+        <v>6.880523603582114</v>
       </c>
       <c r="I15" t="n">
-        <v>23.56186920699355</v>
+        <v>24.52866043965468</v>
       </c>
       <c r="J15" t="n">
-        <v>64.65557001119085</v>
+        <v>67.30851904848424</v>
       </c>
       <c r="K15" t="n">
-        <v>110.5066673368002</v>
+        <v>115.0409797970403</v>
       </c>
       <c r="L15" t="n">
         <v>135.0905202853774</v>
@@ -32096,19 +32098,19 @@
         <v>130.625047228972</v>
       </c>
       <c r="Q15" t="n">
-        <v>87.3560052739287</v>
+        <v>90.94039916378466</v>
       </c>
       <c r="R15" t="n">
-        <v>42.48940388461157</v>
+        <v>44.23283021449065</v>
       </c>
       <c r="S15" t="n">
-        <v>12.71140332377295</v>
+        <v>13.23297795693471</v>
       </c>
       <c r="T15" t="n">
-        <v>2.758389528818734</v>
+        <v>2.871571840005431</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04502268001336349</v>
+        <v>0.0468700517955185</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5737316382030798</v>
+        <v>0.597273009765842</v>
       </c>
       <c r="H16" t="n">
-        <v>5.100995837841931</v>
+        <v>5.310300032281762</v>
       </c>
       <c r="I16" t="n">
-        <v>17.25367508341626</v>
+        <v>17.96162833004914</v>
       </c>
       <c r="J16" t="n">
-        <v>40.56282682095774</v>
+        <v>42.22720179044503</v>
       </c>
       <c r="K16" t="n">
-        <v>66.65718487486689</v>
+        <v>69.39226422552235</v>
       </c>
       <c r="L16" t="n">
-        <v>85.29824737430152</v>
+        <v>88.79820728827801</v>
       </c>
       <c r="M16" t="n">
-        <v>89.93504215941549</v>
+        <v>93.62525915811283</v>
       </c>
       <c r="N16" t="n">
-        <v>87.79658787156771</v>
+        <v>91.39905975807659</v>
       </c>
       <c r="O16" t="n">
-        <v>81.09435918892261</v>
+        <v>84.42182505308467</v>
       </c>
       <c r="P16" t="n">
-        <v>69.39023376957974</v>
+        <v>72.23745565386143</v>
       </c>
       <c r="Q16" t="n">
-        <v>48.04220108625971</v>
+        <v>50.01346993593791</v>
       </c>
       <c r="R16" t="n">
-        <v>25.79706075047665</v>
+        <v>26.85556642092594</v>
       </c>
       <c r="S16" t="n">
-        <v>9.998577731230032</v>
+        <v>10.40883963382835</v>
       </c>
       <c r="T16" t="n">
-        <v>2.451398817776795</v>
+        <v>2.551984678090415</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03129445299289529</v>
+        <v>0.0325785278054096</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,22 +32226,22 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.279036269726372</v>
+        <v>1.331517719350072</v>
       </c>
       <c r="H17" t="n">
-        <v>13.09893019733521</v>
+        <v>13.63640584329392</v>
       </c>
       <c r="I17" t="n">
-        <v>49.31004578862599</v>
+        <v>51.33333687524368</v>
       </c>
       <c r="J17" t="n">
-        <v>108.5566045976887</v>
+        <v>113.0109020326882</v>
       </c>
       <c r="K17" t="n">
-        <v>162.6982098952061</v>
+        <v>169.3740470927768</v>
       </c>
       <c r="L17" t="n">
-        <v>201.8415161348446</v>
+        <v>210.1234824963366</v>
       </c>
       <c r="M17" t="n">
         <v>224.5875773965909</v>
@@ -32248,25 +32250,25 @@
         <v>223.6777370066762</v>
       </c>
       <c r="O17" t="n">
-        <v>215.5032222908594</v>
+        <v>224.3457561361446</v>
       </c>
       <c r="P17" t="n">
-        <v>183.9270143819896</v>
+        <v>191.4739124396896</v>
       </c>
       <c r="Q17" t="n">
-        <v>138.1215279724138</v>
+        <v>143.7889341154651</v>
       </c>
       <c r="R17" t="n">
-        <v>80.34426207819926</v>
+        <v>83.64094993812401</v>
       </c>
       <c r="S17" t="n">
-        <v>29.14603899638972</v>
+        <v>30.34196002968979</v>
       </c>
       <c r="T17" t="n">
-        <v>5.598981270727195</v>
+        <v>5.828718816454941</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1023229015781097</v>
+        <v>0.1065214175480057</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6843447362031247</v>
+        <v>0.7124247872918809</v>
       </c>
       <c r="H18" t="n">
-        <v>6.609329425961759</v>
+        <v>6.880523603582113</v>
       </c>
       <c r="I18" t="n">
-        <v>23.56186920699355</v>
+        <v>24.52866043965467</v>
       </c>
       <c r="J18" t="n">
-        <v>64.65557001119085</v>
+        <v>67.30851904848424</v>
       </c>
       <c r="K18" t="n">
-        <v>110.5066673368002</v>
+        <v>115.0409797970403</v>
       </c>
       <c r="L18" t="n">
         <v>135.0905202853774</v>
@@ -32333,19 +32335,19 @@
         <v>130.625047228972</v>
       </c>
       <c r="Q18" t="n">
-        <v>87.3560052739287</v>
+        <v>90.94039916378466</v>
       </c>
       <c r="R18" t="n">
-        <v>42.48940388461157</v>
+        <v>44.23283021449065</v>
       </c>
       <c r="S18" t="n">
-        <v>12.71140332377295</v>
+        <v>13.23297795693471</v>
       </c>
       <c r="T18" t="n">
-        <v>2.758389528818734</v>
+        <v>2.871571840005431</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04502268001336349</v>
+        <v>0.04687005179551849</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5737316382030798</v>
+        <v>0.5972730097658419</v>
       </c>
       <c r="H19" t="n">
-        <v>5.100995837841931</v>
+        <v>5.310300032281762</v>
       </c>
       <c r="I19" t="n">
-        <v>17.25367508341626</v>
+        <v>17.96162833004914</v>
       </c>
       <c r="J19" t="n">
-        <v>40.56282682095774</v>
+        <v>42.22720179044502</v>
       </c>
       <c r="K19" t="n">
-        <v>66.65718487486689</v>
+        <v>69.39226422552234</v>
       </c>
       <c r="L19" t="n">
-        <v>85.29824737430152</v>
+        <v>88.79820728827801</v>
       </c>
       <c r="M19" t="n">
-        <v>89.93504215941549</v>
+        <v>93.62525915811283</v>
       </c>
       <c r="N19" t="n">
-        <v>87.79658787156771</v>
+        <v>91.39905975807658</v>
       </c>
       <c r="O19" t="n">
-        <v>81.09435918892261</v>
+        <v>84.42182505308467</v>
       </c>
       <c r="P19" t="n">
-        <v>69.39023376957974</v>
+        <v>72.23745565386143</v>
       </c>
       <c r="Q19" t="n">
-        <v>48.04220108625971</v>
+        <v>50.01346993593791</v>
       </c>
       <c r="R19" t="n">
-        <v>25.79706075047665</v>
+        <v>26.85556642092594</v>
       </c>
       <c r="S19" t="n">
-        <v>9.998577731230032</v>
+        <v>10.40883963382835</v>
       </c>
       <c r="T19" t="n">
-        <v>2.451398817776795</v>
+        <v>2.551984678090415</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03129445299289529</v>
+        <v>0.0325785278054096</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,22 +32463,22 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.279036269726372</v>
+        <v>1.331517719350072</v>
       </c>
       <c r="H20" t="n">
-        <v>13.09893019733521</v>
+        <v>13.63640584329392</v>
       </c>
       <c r="I20" t="n">
-        <v>49.31004578862599</v>
+        <v>51.33333687524368</v>
       </c>
       <c r="J20" t="n">
-        <v>108.5566045976887</v>
+        <v>113.0109020326882</v>
       </c>
       <c r="K20" t="n">
-        <v>162.6982098952061</v>
+        <v>169.3740470927768</v>
       </c>
       <c r="L20" t="n">
-        <v>201.8415161348446</v>
+        <v>210.1234824963366</v>
       </c>
       <c r="M20" t="n">
         <v>224.5875773965909</v>
@@ -32485,25 +32487,25 @@
         <v>223.6777370066762</v>
       </c>
       <c r="O20" t="n">
-        <v>215.5032222908594</v>
+        <v>224.3457561361446</v>
       </c>
       <c r="P20" t="n">
-        <v>183.9270143819896</v>
+        <v>191.4739124396896</v>
       </c>
       <c r="Q20" t="n">
-        <v>138.1215279724138</v>
+        <v>143.7889341154651</v>
       </c>
       <c r="R20" t="n">
-        <v>80.34426207819926</v>
+        <v>83.64094993812401</v>
       </c>
       <c r="S20" t="n">
-        <v>29.14603899638972</v>
+        <v>30.34196002968979</v>
       </c>
       <c r="T20" t="n">
-        <v>5.598981270727195</v>
+        <v>5.828718816454941</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1023229015781097</v>
+        <v>0.1065214175480057</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6843447362031247</v>
+        <v>0.7124247872918809</v>
       </c>
       <c r="H21" t="n">
-        <v>6.609329425961759</v>
+        <v>6.880523603582113</v>
       </c>
       <c r="I21" t="n">
-        <v>23.56186920699355</v>
+        <v>24.52866043965467</v>
       </c>
       <c r="J21" t="n">
-        <v>64.65557001119085</v>
+        <v>67.30851904848424</v>
       </c>
       <c r="K21" t="n">
-        <v>110.5066673368002</v>
+        <v>115.0409797970403</v>
       </c>
       <c r="L21" t="n">
         <v>135.0905202853774</v>
@@ -32570,19 +32572,19 @@
         <v>130.625047228972</v>
       </c>
       <c r="Q21" t="n">
-        <v>87.3560052739287</v>
+        <v>90.94039916378466</v>
       </c>
       <c r="R21" t="n">
-        <v>42.48940388461157</v>
+        <v>44.23283021449065</v>
       </c>
       <c r="S21" t="n">
-        <v>12.71140332377295</v>
+        <v>13.23297795693471</v>
       </c>
       <c r="T21" t="n">
-        <v>2.758389528818734</v>
+        <v>2.871571840005431</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04502268001336349</v>
+        <v>0.04687005179551849</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5737316382030798</v>
+        <v>0.5972730097658419</v>
       </c>
       <c r="H22" t="n">
-        <v>5.100995837841931</v>
+        <v>5.310300032281762</v>
       </c>
       <c r="I22" t="n">
-        <v>17.25367508341626</v>
+        <v>17.96162833004914</v>
       </c>
       <c r="J22" t="n">
-        <v>40.56282682095774</v>
+        <v>42.22720179044502</v>
       </c>
       <c r="K22" t="n">
-        <v>66.65718487486689</v>
+        <v>69.39226422552234</v>
       </c>
       <c r="L22" t="n">
-        <v>85.29824737430152</v>
+        <v>88.79820728827801</v>
       </c>
       <c r="M22" t="n">
-        <v>89.93504215941549</v>
+        <v>93.62525915811283</v>
       </c>
       <c r="N22" t="n">
-        <v>87.79658787156771</v>
+        <v>91.39905975807658</v>
       </c>
       <c r="O22" t="n">
-        <v>81.09435918892261</v>
+        <v>84.42182505308467</v>
       </c>
       <c r="P22" t="n">
-        <v>69.39023376957974</v>
+        <v>72.23745565386143</v>
       </c>
       <c r="Q22" t="n">
-        <v>48.04220108625971</v>
+        <v>50.01346993593791</v>
       </c>
       <c r="R22" t="n">
-        <v>25.79706075047665</v>
+        <v>26.85556642092594</v>
       </c>
       <c r="S22" t="n">
-        <v>9.998577731230032</v>
+        <v>10.40883963382835</v>
       </c>
       <c r="T22" t="n">
-        <v>2.451398817776795</v>
+        <v>2.551984678090415</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03129445299289529</v>
+        <v>0.0325785278054096</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,22 +32700,22 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.279036269726372</v>
+        <v>1.331517719350072</v>
       </c>
       <c r="H23" t="n">
-        <v>13.09893019733521</v>
+        <v>13.63640584329392</v>
       </c>
       <c r="I23" t="n">
-        <v>49.31004578862599</v>
+        <v>51.33333687524368</v>
       </c>
       <c r="J23" t="n">
-        <v>108.5566045976887</v>
+        <v>113.0109020326882</v>
       </c>
       <c r="K23" t="n">
-        <v>162.6982098952061</v>
+        <v>169.3740470927768</v>
       </c>
       <c r="L23" t="n">
-        <v>201.8415161348446</v>
+        <v>210.1234824963366</v>
       </c>
       <c r="M23" t="n">
         <v>224.5875773965909</v>
@@ -32722,25 +32724,25 @@
         <v>223.6777370066762</v>
       </c>
       <c r="O23" t="n">
-        <v>215.5032222908594</v>
+        <v>224.3457561361446</v>
       </c>
       <c r="P23" t="n">
-        <v>183.9270143819896</v>
+        <v>191.4739124396896</v>
       </c>
       <c r="Q23" t="n">
-        <v>138.1215279724138</v>
+        <v>143.7889341154651</v>
       </c>
       <c r="R23" t="n">
-        <v>80.34426207819926</v>
+        <v>83.64094993812401</v>
       </c>
       <c r="S23" t="n">
-        <v>29.14603899638972</v>
+        <v>30.34196002968979</v>
       </c>
       <c r="T23" t="n">
-        <v>5.598981270727195</v>
+        <v>5.828718816454941</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1023229015781097</v>
+        <v>0.1065214175480057</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,19 +32779,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6843447362031247</v>
+        <v>0.7124247872918809</v>
       </c>
       <c r="H24" t="n">
-        <v>6.609329425961759</v>
+        <v>6.880523603582113</v>
       </c>
       <c r="I24" t="n">
-        <v>23.56186920699355</v>
+        <v>24.52866043965467</v>
       </c>
       <c r="J24" t="n">
-        <v>64.65557001119085</v>
+        <v>67.30851904848424</v>
       </c>
       <c r="K24" t="n">
-        <v>110.5066673368002</v>
+        <v>115.0409797970403</v>
       </c>
       <c r="L24" t="n">
         <v>135.0905202853774</v>
@@ -32807,19 +32809,19 @@
         <v>130.625047228972</v>
       </c>
       <c r="Q24" t="n">
-        <v>87.3560052739287</v>
+        <v>90.94039916378466</v>
       </c>
       <c r="R24" t="n">
-        <v>42.48940388461157</v>
+        <v>44.23283021449065</v>
       </c>
       <c r="S24" t="n">
-        <v>12.71140332377295</v>
+        <v>13.23297795693471</v>
       </c>
       <c r="T24" t="n">
-        <v>2.758389528818734</v>
+        <v>2.871571840005431</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04502268001336349</v>
+        <v>0.04687005179551849</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5737316382030798</v>
+        <v>0.5972730097658419</v>
       </c>
       <c r="H25" t="n">
-        <v>5.100995837841931</v>
+        <v>5.310300032281762</v>
       </c>
       <c r="I25" t="n">
-        <v>17.25367508341626</v>
+        <v>17.96162833004914</v>
       </c>
       <c r="J25" t="n">
-        <v>40.56282682095774</v>
+        <v>42.22720179044502</v>
       </c>
       <c r="K25" t="n">
-        <v>66.65718487486689</v>
+        <v>69.39226422552234</v>
       </c>
       <c r="L25" t="n">
-        <v>85.29824737430152</v>
+        <v>88.79820728827801</v>
       </c>
       <c r="M25" t="n">
-        <v>89.93504215941549</v>
+        <v>93.62525915811283</v>
       </c>
       <c r="N25" t="n">
-        <v>87.79658787156771</v>
+        <v>91.39905975807658</v>
       </c>
       <c r="O25" t="n">
-        <v>81.09435918892261</v>
+        <v>84.42182505308467</v>
       </c>
       <c r="P25" t="n">
-        <v>69.39023376957974</v>
+        <v>72.23745565386143</v>
       </c>
       <c r="Q25" t="n">
-        <v>48.04220108625971</v>
+        <v>50.01346993593791</v>
       </c>
       <c r="R25" t="n">
-        <v>25.79706075047665</v>
+        <v>26.85556642092594</v>
       </c>
       <c r="S25" t="n">
-        <v>9.998577731230032</v>
+        <v>10.40883963382835</v>
       </c>
       <c r="T25" t="n">
-        <v>2.451398817776795</v>
+        <v>2.551984678090415</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03129445299289529</v>
+        <v>0.0325785278054096</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,22 +32937,22 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.279036269726372</v>
+        <v>1.331517719350072</v>
       </c>
       <c r="H26" t="n">
-        <v>13.09893019733521</v>
+        <v>13.63640584329392</v>
       </c>
       <c r="I26" t="n">
-        <v>49.31004578862599</v>
+        <v>51.33333687524368</v>
       </c>
       <c r="J26" t="n">
-        <v>108.5566045976887</v>
+        <v>113.0109020326882</v>
       </c>
       <c r="K26" t="n">
-        <v>162.6982098952061</v>
+        <v>169.3740470927768</v>
       </c>
       <c r="L26" t="n">
-        <v>201.8415161348446</v>
+        <v>210.1234824963366</v>
       </c>
       <c r="M26" t="n">
         <v>224.5875773965909</v>
@@ -32959,25 +32961,25 @@
         <v>223.6777370066762</v>
       </c>
       <c r="O26" t="n">
-        <v>215.5032222908594</v>
+        <v>224.3457561361446</v>
       </c>
       <c r="P26" t="n">
-        <v>183.9270143819896</v>
+        <v>191.4739124396896</v>
       </c>
       <c r="Q26" t="n">
-        <v>138.1215279724138</v>
+        <v>143.7889341154651</v>
       </c>
       <c r="R26" t="n">
-        <v>80.34426207819926</v>
+        <v>83.64094993812401</v>
       </c>
       <c r="S26" t="n">
-        <v>29.14603899638972</v>
+        <v>30.34196002968979</v>
       </c>
       <c r="T26" t="n">
-        <v>5.598981270727195</v>
+        <v>5.828718816454941</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1023229015781097</v>
+        <v>0.1065214175480057</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,19 +33016,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6843447362031247</v>
+        <v>0.7124247872918809</v>
       </c>
       <c r="H27" t="n">
-        <v>6.609329425961758</v>
+        <v>6.880523603582113</v>
       </c>
       <c r="I27" t="n">
-        <v>23.56186920699355</v>
+        <v>24.52866043965467</v>
       </c>
       <c r="J27" t="n">
-        <v>64.65557001119085</v>
+        <v>67.30851904848424</v>
       </c>
       <c r="K27" t="n">
-        <v>110.5066673368002</v>
+        <v>115.0409797970403</v>
       </c>
       <c r="L27" t="n">
         <v>135.0905202853774</v>
@@ -33044,19 +33046,19 @@
         <v>130.625047228972</v>
       </c>
       <c r="Q27" t="n">
-        <v>87.3560052739287</v>
+        <v>90.94039916378466</v>
       </c>
       <c r="R27" t="n">
-        <v>42.48940388461157</v>
+        <v>44.23283021449065</v>
       </c>
       <c r="S27" t="n">
-        <v>12.71140332377294</v>
+        <v>13.23297795693471</v>
       </c>
       <c r="T27" t="n">
-        <v>2.758389528818734</v>
+        <v>2.871571840005431</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04502268001336349</v>
+        <v>0.04687005179551849</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5737316382030797</v>
+        <v>0.5972730097658419</v>
       </c>
       <c r="H28" t="n">
-        <v>5.100995837841931</v>
+        <v>5.310300032281762</v>
       </c>
       <c r="I28" t="n">
-        <v>17.25367508341626</v>
+        <v>17.96162833004914</v>
       </c>
       <c r="J28" t="n">
-        <v>40.56282682095774</v>
+        <v>42.22720179044502</v>
       </c>
       <c r="K28" t="n">
-        <v>66.65718487486689</v>
+        <v>69.39226422552234</v>
       </c>
       <c r="L28" t="n">
-        <v>85.29824737430152</v>
+        <v>88.79820728827801</v>
       </c>
       <c r="M28" t="n">
-        <v>89.93504215941549</v>
+        <v>93.62525915811283</v>
       </c>
       <c r="N28" t="n">
-        <v>87.79658787156771</v>
+        <v>91.39905975807658</v>
       </c>
       <c r="O28" t="n">
-        <v>81.09435918892261</v>
+        <v>84.42182505308467</v>
       </c>
       <c r="P28" t="n">
-        <v>69.39023376957972</v>
+        <v>72.23745565386143</v>
       </c>
       <c r="Q28" t="n">
-        <v>48.04220108625971</v>
+        <v>50.01346993593791</v>
       </c>
       <c r="R28" t="n">
-        <v>25.79706075047665</v>
+        <v>26.85556642092594</v>
       </c>
       <c r="S28" t="n">
-        <v>9.998577731230032</v>
+        <v>10.40883963382835</v>
       </c>
       <c r="T28" t="n">
-        <v>2.451398817776795</v>
+        <v>2.551984678090415</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0312944529928953</v>
+        <v>0.0325785278054096</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,22 +33174,22 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.279036269726372</v>
+        <v>1.331517719350072</v>
       </c>
       <c r="H29" t="n">
-        <v>13.09893019733521</v>
+        <v>13.63640584329392</v>
       </c>
       <c r="I29" t="n">
-        <v>49.31004578862599</v>
+        <v>51.33333687524368</v>
       </c>
       <c r="J29" t="n">
-        <v>108.5566045976887</v>
+        <v>113.0109020326882</v>
       </c>
       <c r="K29" t="n">
-        <v>162.6982098952061</v>
+        <v>169.3740470927768</v>
       </c>
       <c r="L29" t="n">
-        <v>201.8415161348446</v>
+        <v>210.1234824963366</v>
       </c>
       <c r="M29" t="n">
         <v>224.5875773965909</v>
@@ -33196,25 +33198,25 @@
         <v>223.6777370066762</v>
       </c>
       <c r="O29" t="n">
-        <v>215.5032222908594</v>
+        <v>224.3457561361446</v>
       </c>
       <c r="P29" t="n">
-        <v>183.9270143819896</v>
+        <v>191.4739124396896</v>
       </c>
       <c r="Q29" t="n">
-        <v>138.1215279724138</v>
+        <v>143.7889341154651</v>
       </c>
       <c r="R29" t="n">
-        <v>80.34426207819926</v>
+        <v>83.64094993812401</v>
       </c>
       <c r="S29" t="n">
-        <v>29.14603899638972</v>
+        <v>30.34196002968979</v>
       </c>
       <c r="T29" t="n">
-        <v>5.598981270727195</v>
+        <v>5.828718816454941</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1023229015781097</v>
+        <v>0.1065214175480057</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,19 +33253,19 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6843447362031247</v>
+        <v>0.7124247872918809</v>
       </c>
       <c r="H30" t="n">
-        <v>6.609329425961759</v>
+        <v>6.880523603582113</v>
       </c>
       <c r="I30" t="n">
-        <v>23.56186920699355</v>
+        <v>24.52866043965467</v>
       </c>
       <c r="J30" t="n">
-        <v>64.65557001119085</v>
+        <v>67.30851904848424</v>
       </c>
       <c r="K30" t="n">
-        <v>110.5066673368002</v>
+        <v>115.0409797970403</v>
       </c>
       <c r="L30" t="n">
         <v>135.0905202853774</v>
@@ -33281,19 +33283,19 @@
         <v>130.625047228972</v>
       </c>
       <c r="Q30" t="n">
-        <v>87.3560052739287</v>
+        <v>90.94039916378466</v>
       </c>
       <c r="R30" t="n">
-        <v>42.48940388461157</v>
+        <v>44.23283021449065</v>
       </c>
       <c r="S30" t="n">
-        <v>12.71140332377295</v>
+        <v>13.23297795693471</v>
       </c>
       <c r="T30" t="n">
-        <v>2.758389528818734</v>
+        <v>2.871571840005431</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04502268001336349</v>
+        <v>0.04687005179551849</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5737316382030798</v>
+        <v>0.5972730097658419</v>
       </c>
       <c r="H31" t="n">
-        <v>5.100995837841931</v>
+        <v>5.310300032281762</v>
       </c>
       <c r="I31" t="n">
-        <v>17.25367508341626</v>
+        <v>17.96162833004914</v>
       </c>
       <c r="J31" t="n">
-        <v>40.56282682095774</v>
+        <v>42.22720179044502</v>
       </c>
       <c r="K31" t="n">
-        <v>66.65718487486689</v>
+        <v>69.39226422552234</v>
       </c>
       <c r="L31" t="n">
-        <v>85.29824737430152</v>
+        <v>88.79820728827801</v>
       </c>
       <c r="M31" t="n">
-        <v>89.93504215941549</v>
+        <v>93.62525915811283</v>
       </c>
       <c r="N31" t="n">
-        <v>87.79658787156771</v>
+        <v>91.39905975807658</v>
       </c>
       <c r="O31" t="n">
-        <v>81.09435918892261</v>
+        <v>84.42182505308467</v>
       </c>
       <c r="P31" t="n">
-        <v>69.39023376957974</v>
+        <v>72.23745565386143</v>
       </c>
       <c r="Q31" t="n">
-        <v>48.04220108625971</v>
+        <v>50.01346993593791</v>
       </c>
       <c r="R31" t="n">
-        <v>25.79706075047665</v>
+        <v>26.85556642092594</v>
       </c>
       <c r="S31" t="n">
-        <v>9.998577731230032</v>
+        <v>10.40883963382835</v>
       </c>
       <c r="T31" t="n">
-        <v>2.451398817776795</v>
+        <v>2.551984678090415</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03129445299289529</v>
+        <v>0.0325785278054096</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,22 +33411,22 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.279036269726372</v>
+        <v>1.331517719350072</v>
       </c>
       <c r="H32" t="n">
-        <v>13.09893019733521</v>
+        <v>13.63640584329392</v>
       </c>
       <c r="I32" t="n">
-        <v>49.31004578862599</v>
+        <v>51.33333687524368</v>
       </c>
       <c r="J32" t="n">
-        <v>108.5566045976887</v>
+        <v>113.0109020326882</v>
       </c>
       <c r="K32" t="n">
-        <v>162.6982098952061</v>
+        <v>169.3740470927768</v>
       </c>
       <c r="L32" t="n">
-        <v>201.8415161348446</v>
+        <v>210.1234824963366</v>
       </c>
       <c r="M32" t="n">
         <v>224.5875773965909</v>
@@ -33433,25 +33435,25 @@
         <v>223.6777370066762</v>
       </c>
       <c r="O32" t="n">
-        <v>215.5032222908594</v>
+        <v>224.3457561361446</v>
       </c>
       <c r="P32" t="n">
-        <v>183.9270143819896</v>
+        <v>191.4739124396896</v>
       </c>
       <c r="Q32" t="n">
-        <v>138.1215279724138</v>
+        <v>143.7889341154651</v>
       </c>
       <c r="R32" t="n">
-        <v>80.34426207819926</v>
+        <v>83.64094993812401</v>
       </c>
       <c r="S32" t="n">
-        <v>29.14603899638972</v>
+        <v>30.34196002968979</v>
       </c>
       <c r="T32" t="n">
-        <v>5.598981270727195</v>
+        <v>5.828718816454941</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1023229015781097</v>
+        <v>0.1065214175480057</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,19 +33490,19 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6843447362031247</v>
+        <v>0.7124247872918809</v>
       </c>
       <c r="H33" t="n">
-        <v>6.609329425961759</v>
+        <v>6.880523603582113</v>
       </c>
       <c r="I33" t="n">
-        <v>23.56186920699355</v>
+        <v>24.52866043965467</v>
       </c>
       <c r="J33" t="n">
-        <v>64.65557001119085</v>
+        <v>67.30851904848424</v>
       </c>
       <c r="K33" t="n">
-        <v>110.5066673368002</v>
+        <v>115.0409797970403</v>
       </c>
       <c r="L33" t="n">
         <v>135.0905202853774</v>
@@ -33518,19 +33520,19 @@
         <v>130.625047228972</v>
       </c>
       <c r="Q33" t="n">
-        <v>87.3560052739287</v>
+        <v>90.94039916378466</v>
       </c>
       <c r="R33" t="n">
-        <v>42.48940388461157</v>
+        <v>44.23283021449065</v>
       </c>
       <c r="S33" t="n">
-        <v>12.71140332377295</v>
+        <v>13.23297795693471</v>
       </c>
       <c r="T33" t="n">
-        <v>2.758389528818734</v>
+        <v>2.871571840005431</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04502268001336349</v>
+        <v>0.04687005179551849</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5737316382030798</v>
+        <v>0.5972730097658419</v>
       </c>
       <c r="H34" t="n">
-        <v>5.100995837841931</v>
+        <v>5.310300032281762</v>
       </c>
       <c r="I34" t="n">
-        <v>17.25367508341626</v>
+        <v>17.96162833004914</v>
       </c>
       <c r="J34" t="n">
-        <v>40.56282682095774</v>
+        <v>42.22720179044502</v>
       </c>
       <c r="K34" t="n">
-        <v>66.65718487486689</v>
+        <v>69.39226422552234</v>
       </c>
       <c r="L34" t="n">
-        <v>85.29824737430152</v>
+        <v>88.79820728827801</v>
       </c>
       <c r="M34" t="n">
-        <v>89.93504215941549</v>
+        <v>93.62525915811283</v>
       </c>
       <c r="N34" t="n">
-        <v>87.79658787156771</v>
+        <v>91.39905975807658</v>
       </c>
       <c r="O34" t="n">
-        <v>81.09435918892261</v>
+        <v>84.42182505308467</v>
       </c>
       <c r="P34" t="n">
-        <v>69.39023376957974</v>
+        <v>72.23745565386143</v>
       </c>
       <c r="Q34" t="n">
-        <v>48.04220108625971</v>
+        <v>50.01346993593791</v>
       </c>
       <c r="R34" t="n">
-        <v>25.79706075047665</v>
+        <v>26.85556642092594</v>
       </c>
       <c r="S34" t="n">
-        <v>9.998577731230032</v>
+        <v>10.40883963382835</v>
       </c>
       <c r="T34" t="n">
-        <v>2.451398817776795</v>
+        <v>2.551984678090415</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03129445299289529</v>
+        <v>0.0325785278054096</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,22 +33648,22 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.279036269726372</v>
+        <v>1.331517719350072</v>
       </c>
       <c r="H35" t="n">
-        <v>13.09893019733521</v>
+        <v>13.63640584329392</v>
       </c>
       <c r="I35" t="n">
-        <v>49.31004578862599</v>
+        <v>51.33333687524368</v>
       </c>
       <c r="J35" t="n">
-        <v>108.5566045976887</v>
+        <v>113.0109020326882</v>
       </c>
       <c r="K35" t="n">
-        <v>162.6982098952061</v>
+        <v>169.3740470927768</v>
       </c>
       <c r="L35" t="n">
-        <v>201.8415161348446</v>
+        <v>210.1234824963366</v>
       </c>
       <c r="M35" t="n">
         <v>224.5875773965909</v>
@@ -33670,25 +33672,25 @@
         <v>223.6777370066762</v>
       </c>
       <c r="O35" t="n">
-        <v>215.5032222908594</v>
+        <v>224.3457561361446</v>
       </c>
       <c r="P35" t="n">
-        <v>183.9270143819896</v>
+        <v>191.4739124396896</v>
       </c>
       <c r="Q35" t="n">
-        <v>138.1215279724138</v>
+        <v>143.7889341154651</v>
       </c>
       <c r="R35" t="n">
-        <v>80.34426207819926</v>
+        <v>83.64094993812401</v>
       </c>
       <c r="S35" t="n">
-        <v>29.14603899638972</v>
+        <v>30.34196002968979</v>
       </c>
       <c r="T35" t="n">
-        <v>5.598981270727195</v>
+        <v>5.828718816454941</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1023229015781097</v>
+        <v>0.1065214175480057</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,19 +33727,19 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6843447362031247</v>
+        <v>0.7124247872918809</v>
       </c>
       <c r="H36" t="n">
-        <v>6.609329425961759</v>
+        <v>6.880523603582113</v>
       </c>
       <c r="I36" t="n">
-        <v>23.56186920699355</v>
+        <v>24.52866043965467</v>
       </c>
       <c r="J36" t="n">
-        <v>64.65557001119085</v>
+        <v>67.30851904848424</v>
       </c>
       <c r="K36" t="n">
-        <v>110.5066673368002</v>
+        <v>115.0409797970403</v>
       </c>
       <c r="L36" t="n">
         <v>135.0905202853774</v>
@@ -33755,19 +33757,19 @@
         <v>130.625047228972</v>
       </c>
       <c r="Q36" t="n">
-        <v>87.3560052739287</v>
+        <v>90.94039916378466</v>
       </c>
       <c r="R36" t="n">
-        <v>42.48940388461157</v>
+        <v>44.23283021449065</v>
       </c>
       <c r="S36" t="n">
-        <v>12.71140332377295</v>
+        <v>13.23297795693471</v>
       </c>
       <c r="T36" t="n">
-        <v>2.758389528818734</v>
+        <v>2.871571840005431</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04502268001336349</v>
+        <v>0.04687005179551849</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5737316382030798</v>
+        <v>0.5972730097658419</v>
       </c>
       <c r="H37" t="n">
-        <v>5.100995837841931</v>
+        <v>5.310300032281762</v>
       </c>
       <c r="I37" t="n">
-        <v>17.25367508341626</v>
+        <v>17.96162833004914</v>
       </c>
       <c r="J37" t="n">
-        <v>40.56282682095774</v>
+        <v>42.22720179044502</v>
       </c>
       <c r="K37" t="n">
-        <v>66.65718487486689</v>
+        <v>69.39226422552234</v>
       </c>
       <c r="L37" t="n">
-        <v>85.29824737430152</v>
+        <v>88.79820728827801</v>
       </c>
       <c r="M37" t="n">
-        <v>89.93504215941549</v>
+        <v>93.62525915811283</v>
       </c>
       <c r="N37" t="n">
-        <v>87.79658787156771</v>
+        <v>91.39905975807658</v>
       </c>
       <c r="O37" t="n">
-        <v>81.09435918892261</v>
+        <v>84.42182505308467</v>
       </c>
       <c r="P37" t="n">
-        <v>69.39023376957974</v>
+        <v>72.23745565386143</v>
       </c>
       <c r="Q37" t="n">
-        <v>48.04220108625971</v>
+        <v>50.01346993593791</v>
       </c>
       <c r="R37" t="n">
-        <v>25.79706075047665</v>
+        <v>26.85556642092594</v>
       </c>
       <c r="S37" t="n">
-        <v>9.998577731230032</v>
+        <v>10.40883963382835</v>
       </c>
       <c r="T37" t="n">
-        <v>2.451398817776795</v>
+        <v>2.551984678090415</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03129445299289529</v>
+        <v>0.0325785278054096</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,22 +33885,22 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.279036269726372</v>
+        <v>1.331517719350072</v>
       </c>
       <c r="H38" t="n">
-        <v>13.09893019733521</v>
+        <v>13.63640584329393</v>
       </c>
       <c r="I38" t="n">
-        <v>49.31004578862599</v>
+        <v>51.33333687524369</v>
       </c>
       <c r="J38" t="n">
-        <v>108.5566045976887</v>
+        <v>113.0109020326882</v>
       </c>
       <c r="K38" t="n">
-        <v>162.6982098952061</v>
+        <v>169.3740470927768</v>
       </c>
       <c r="L38" t="n">
-        <v>201.8415161348446</v>
+        <v>210.1234824963366</v>
       </c>
       <c r="M38" t="n">
         <v>224.5875773965909</v>
@@ -33907,25 +33909,25 @@
         <v>223.6777370066762</v>
       </c>
       <c r="O38" t="n">
-        <v>215.5032222908594</v>
+        <v>224.3457561361446</v>
       </c>
       <c r="P38" t="n">
-        <v>183.9270143819896</v>
+        <v>191.4739124396896</v>
       </c>
       <c r="Q38" t="n">
-        <v>138.1215279724138</v>
+        <v>143.7889341154651</v>
       </c>
       <c r="R38" t="n">
-        <v>80.34426207819926</v>
+        <v>83.64094993812401</v>
       </c>
       <c r="S38" t="n">
-        <v>29.14603899638972</v>
+        <v>30.34196002968979</v>
       </c>
       <c r="T38" t="n">
-        <v>5.598981270727195</v>
+        <v>5.828718816454942</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1023229015781097</v>
+        <v>0.1065214175480057</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,19 +33964,19 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6843447362031247</v>
+        <v>0.7124247872918809</v>
       </c>
       <c r="H39" t="n">
-        <v>6.609329425961759</v>
+        <v>6.880523603582114</v>
       </c>
       <c r="I39" t="n">
-        <v>23.56186920699355</v>
+        <v>24.52866043965468</v>
       </c>
       <c r="J39" t="n">
-        <v>64.65557001119085</v>
+        <v>67.30851904848424</v>
       </c>
       <c r="K39" t="n">
-        <v>110.5066673368002</v>
+        <v>115.0409797970403</v>
       </c>
       <c r="L39" t="n">
         <v>135.0905202853774</v>
@@ -33992,19 +33994,19 @@
         <v>130.625047228972</v>
       </c>
       <c r="Q39" t="n">
-        <v>87.3560052739287</v>
+        <v>90.94039916378466</v>
       </c>
       <c r="R39" t="n">
-        <v>42.48940388461157</v>
+        <v>44.23283021449065</v>
       </c>
       <c r="S39" t="n">
-        <v>12.71140332377295</v>
+        <v>13.23297795693471</v>
       </c>
       <c r="T39" t="n">
-        <v>2.758389528818734</v>
+        <v>2.871571840005431</v>
       </c>
       <c r="U39" t="n">
-        <v>0.04502268001336349</v>
+        <v>0.0468700517955185</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5737316382030798</v>
+        <v>0.597273009765842</v>
       </c>
       <c r="H40" t="n">
-        <v>5.100995837841931</v>
+        <v>5.310300032281762</v>
       </c>
       <c r="I40" t="n">
-        <v>17.25367508341626</v>
+        <v>17.96162833004914</v>
       </c>
       <c r="J40" t="n">
-        <v>40.56282682095774</v>
+        <v>42.22720179044503</v>
       </c>
       <c r="K40" t="n">
-        <v>66.65718487486689</v>
+        <v>69.39226422552235</v>
       </c>
       <c r="L40" t="n">
-        <v>85.29824737430152</v>
+        <v>88.79820728827801</v>
       </c>
       <c r="M40" t="n">
-        <v>89.93504215941549</v>
+        <v>93.62525915811283</v>
       </c>
       <c r="N40" t="n">
-        <v>87.79658787156771</v>
+        <v>91.39905975807659</v>
       </c>
       <c r="O40" t="n">
-        <v>81.09435918892261</v>
+        <v>84.42182505308467</v>
       </c>
       <c r="P40" t="n">
-        <v>69.39023376957974</v>
+        <v>72.23745565386143</v>
       </c>
       <c r="Q40" t="n">
-        <v>48.04220108625971</v>
+        <v>50.01346993593791</v>
       </c>
       <c r="R40" t="n">
-        <v>25.79706075047665</v>
+        <v>26.85556642092594</v>
       </c>
       <c r="S40" t="n">
-        <v>9.998577731230032</v>
+        <v>10.40883963382835</v>
       </c>
       <c r="T40" t="n">
-        <v>2.451398817776795</v>
+        <v>2.551984678090415</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03129445299289529</v>
+        <v>0.0325785278054096</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,22 +34122,22 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.279036269726372</v>
+        <v>1.331517719350072</v>
       </c>
       <c r="H41" t="n">
-        <v>13.09893019733521</v>
+        <v>13.63640584329393</v>
       </c>
       <c r="I41" t="n">
-        <v>49.31004578862599</v>
+        <v>51.33333687524369</v>
       </c>
       <c r="J41" t="n">
-        <v>108.5566045976887</v>
+        <v>113.0109020326882</v>
       </c>
       <c r="K41" t="n">
-        <v>162.6982098952061</v>
+        <v>169.3740470927768</v>
       </c>
       <c r="L41" t="n">
-        <v>201.8415161348446</v>
+        <v>210.1234824963366</v>
       </c>
       <c r="M41" t="n">
         <v>224.5875773965909</v>
@@ -34144,25 +34146,25 @@
         <v>223.6777370066762</v>
       </c>
       <c r="O41" t="n">
-        <v>215.5032222908594</v>
+        <v>224.3457561361446</v>
       </c>
       <c r="P41" t="n">
-        <v>183.9270143819896</v>
+        <v>191.4739124396896</v>
       </c>
       <c r="Q41" t="n">
-        <v>138.1215279724138</v>
+        <v>143.7889341154651</v>
       </c>
       <c r="R41" t="n">
-        <v>80.34426207819926</v>
+        <v>83.64094993812401</v>
       </c>
       <c r="S41" t="n">
-        <v>29.14603899638972</v>
+        <v>30.34196002968979</v>
       </c>
       <c r="T41" t="n">
-        <v>5.598981270727195</v>
+        <v>5.828718816454942</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1023229015781097</v>
+        <v>0.1065214175480057</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,19 +34201,19 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6843447362031247</v>
+        <v>0.7124247872918809</v>
       </c>
       <c r="H42" t="n">
-        <v>6.609329425961759</v>
+        <v>6.880523603582114</v>
       </c>
       <c r="I42" t="n">
-        <v>23.56186920699355</v>
+        <v>24.52866043965468</v>
       </c>
       <c r="J42" t="n">
-        <v>64.65557001119085</v>
+        <v>67.30851904848424</v>
       </c>
       <c r="K42" t="n">
-        <v>110.5066673368002</v>
+        <v>115.0409797970403</v>
       </c>
       <c r="L42" t="n">
         <v>135.0905202853774</v>
@@ -34229,19 +34231,19 @@
         <v>130.625047228972</v>
       </c>
       <c r="Q42" t="n">
-        <v>87.3560052739287</v>
+        <v>90.94039916378466</v>
       </c>
       <c r="R42" t="n">
-        <v>42.48940388461157</v>
+        <v>44.23283021449065</v>
       </c>
       <c r="S42" t="n">
-        <v>12.71140332377295</v>
+        <v>13.23297795693471</v>
       </c>
       <c r="T42" t="n">
-        <v>2.758389528818734</v>
+        <v>2.871571840005431</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04502268001336349</v>
+        <v>0.0468700517955185</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5737316382030798</v>
+        <v>0.597273009765842</v>
       </c>
       <c r="H43" t="n">
-        <v>5.100995837841931</v>
+        <v>5.310300032281762</v>
       </c>
       <c r="I43" t="n">
-        <v>17.25367508341626</v>
+        <v>17.96162833004914</v>
       </c>
       <c r="J43" t="n">
-        <v>40.56282682095774</v>
+        <v>42.22720179044503</v>
       </c>
       <c r="K43" t="n">
-        <v>66.65718487486689</v>
+        <v>69.39226422552235</v>
       </c>
       <c r="L43" t="n">
-        <v>85.29824737430152</v>
+        <v>88.79820728827801</v>
       </c>
       <c r="M43" t="n">
-        <v>89.93504215941549</v>
+        <v>93.62525915811283</v>
       </c>
       <c r="N43" t="n">
-        <v>87.79658787156771</v>
+        <v>91.39905975807659</v>
       </c>
       <c r="O43" t="n">
-        <v>81.09435918892261</v>
+        <v>84.42182505308467</v>
       </c>
       <c r="P43" t="n">
-        <v>69.39023376957974</v>
+        <v>72.23745565386143</v>
       </c>
       <c r="Q43" t="n">
-        <v>48.04220108625971</v>
+        <v>50.01346993593791</v>
       </c>
       <c r="R43" t="n">
-        <v>25.79706075047665</v>
+        <v>26.85556642092594</v>
       </c>
       <c r="S43" t="n">
-        <v>9.998577731230032</v>
+        <v>10.40883963382835</v>
       </c>
       <c r="T43" t="n">
-        <v>2.451398817776795</v>
+        <v>2.551984678090415</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03129445299289529</v>
+        <v>0.0325785278054096</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.279036269726372</v>
+        <v>1.55553143592313</v>
       </c>
       <c r="H44" t="n">
-        <v>13.09893019733521</v>
+        <v>15.93058631814776</v>
       </c>
       <c r="I44" t="n">
-        <v>49.31004578862599</v>
+        <v>59.96962568342652</v>
       </c>
       <c r="J44" t="n">
-        <v>108.5566045976887</v>
+        <v>132.0237862096808</v>
       </c>
       <c r="K44" t="n">
-        <v>162.6982098952061</v>
+        <v>197.869431892307</v>
       </c>
       <c r="L44" t="n">
-        <v>201.8415161348446</v>
+        <v>245.4745270744395</v>
       </c>
       <c r="M44" t="n">
-        <v>224.5875773965909</v>
+        <v>262.3313684848398</v>
       </c>
       <c r="N44" t="n">
-        <v>223.6777370066762</v>
+        <v>261.4215280949251</v>
       </c>
       <c r="O44" t="n">
-        <v>215.5032222908594</v>
+        <v>262.0895472243935</v>
       </c>
       <c r="P44" t="n">
-        <v>183.9270143819896</v>
+        <v>223.6873649000411</v>
       </c>
       <c r="Q44" t="n">
-        <v>138.1215279724138</v>
+        <v>167.979895351044</v>
       </c>
       <c r="R44" t="n">
-        <v>80.34426207819926</v>
+        <v>97.7126515618064</v>
       </c>
       <c r="S44" t="n">
-        <v>29.14603899638972</v>
+        <v>35.44667259609836</v>
       </c>
       <c r="T44" t="n">
-        <v>5.598981270727195</v>
+        <v>6.809338860753504</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1023229015781097</v>
+        <v>0.1244425148738504</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6843447362031247</v>
+        <v>0.8322826923432111</v>
       </c>
       <c r="H45" t="n">
-        <v>6.609329425961759</v>
+        <v>8.038098633946277</v>
       </c>
       <c r="I45" t="n">
-        <v>23.56186920699355</v>
+        <v>28.65534708286933</v>
       </c>
       <c r="J45" t="n">
-        <v>64.65557001119085</v>
+        <v>78.63246261300488</v>
       </c>
       <c r="K45" t="n">
-        <v>110.5066673368002</v>
+        <v>134.395403</v>
       </c>
       <c r="L45" t="n">
-        <v>135.0905202853774</v>
+        <v>172.8343113736263</v>
       </c>
       <c r="M45" t="n">
-        <v>138.5806830739679</v>
+        <v>176.3244741622168</v>
       </c>
       <c r="N45" t="n">
-        <v>128.05816928125</v>
+        <v>135.9725153276434</v>
       </c>
       <c r="O45" t="n">
-        <v>139.0313383333333</v>
+        <v>176.7751294215822</v>
       </c>
       <c r="P45" t="n">
-        <v>130.625047228972</v>
+        <v>158.9294906106962</v>
       </c>
       <c r="Q45" t="n">
-        <v>87.3560052739287</v>
+        <v>106.2401556050738</v>
       </c>
       <c r="R45" t="n">
-        <v>42.48940388461157</v>
+        <v>51.67453417899343</v>
       </c>
       <c r="S45" t="n">
-        <v>12.71140332377295</v>
+        <v>15.45928597400656</v>
       </c>
       <c r="T45" t="n">
-        <v>2.758389528818734</v>
+        <v>3.354683308172854</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04502268001336349</v>
+        <v>0.0547554402857376</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5737316382030798</v>
+        <v>0.6977578510728962</v>
       </c>
       <c r="H46" t="n">
-        <v>5.100995837841931</v>
+        <v>6.203701621357209</v>
       </c>
       <c r="I46" t="n">
-        <v>17.25367508341626</v>
+        <v>20.98348155771946</v>
       </c>
       <c r="J46" t="n">
-        <v>40.56282682095774</v>
+        <v>49.33148007085376</v>
       </c>
       <c r="K46" t="n">
-        <v>66.65718487486689</v>
+        <v>81.06677578828737</v>
       </c>
       <c r="L46" t="n">
-        <v>85.29824737430152</v>
+        <v>103.737562694965</v>
       </c>
       <c r="M46" t="n">
-        <v>89.93504215941549</v>
+        <v>109.3767147822722</v>
       </c>
       <c r="N46" t="n">
-        <v>87.79658787156771</v>
+        <v>106.7759809737279</v>
       </c>
       <c r="O46" t="n">
-        <v>81.09435918892261</v>
+        <v>98.62490062255813</v>
       </c>
       <c r="P46" t="n">
-        <v>69.39023376957974</v>
+        <v>84.39064046067098</v>
       </c>
       <c r="Q46" t="n">
-        <v>48.04220108625971</v>
+        <v>58.4277051475677</v>
       </c>
       <c r="R46" t="n">
-        <v>25.79706075047665</v>
+        <v>31.37373028551403</v>
       </c>
       <c r="S46" t="n">
-        <v>9.998577731230032</v>
+        <v>12.1600163682431</v>
       </c>
       <c r="T46" t="n">
-        <v>2.451398817776795</v>
+        <v>2.981329000038738</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03129445299289529</v>
+        <v>0.03805951914943075</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -38020,16 +38022,16 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>15.60227247870196</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>37.74379108824891</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>37.74379108824891</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>37.74379108824891</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38099,19 +38101,19 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>37.74379108824891</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>37.74379108824891</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>7.914346046393471</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>37.74379108824891</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>28.30444338172418</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
